--- a/analysis/results/Q1/univariate_analysis/uni_analysis_wb_terminal_ileum.xlsx
+++ b/analysis/results/Q1/univariate_analysis/uni_analysis_wb_terminal_ileum.xlsx
@@ -1819,10 +1819,10 @@
         <v>2.66574417532024</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.125</v>
+        <v>0.328571428571429</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -1911,10 +1911,10 @@
         <v>-4.03962459997042</v>
       </c>
       <c r="X3" t="n">
-        <v>0.108695652173913</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0271739130434783</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -2003,10 +2003,10 @@
         <v>-0.539870921176385</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0597826086956522</v>
+        <v>0.157142857142857</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -2095,10 +2095,10 @@
         <v>0.798369903815853</v>
       </c>
       <c r="X5" t="n">
-        <v>0.28804347826087</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.190217391304348</v>
+        <v>0.5</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -2187,10 +2187,10 @@
         <v>0.457047065626179</v>
       </c>
       <c r="X6" t="n">
-        <v>0.233695652173913</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.179347826086957</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -2279,10 +2279,10 @@
         <v>2.32691155478466</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0597826086956522</v>
+        <v>0.150684931506849</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0815217391304348</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -2371,10 +2371,10 @@
         <v>0.0474559142925272</v>
       </c>
       <c r="X8" t="n">
-        <v>0.385869565217391</v>
+        <v>0.972602739726027</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.315217391304348</v>
+        <v>0.828571428571429</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -2463,10 +2463,10 @@
         <v>-4.23766645670665</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0760869565217391</v>
+        <v>0.191780821917808</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0108695652173913</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="Z9" t="s">
         <v>45</v>
@@ -2555,10 +2555,10 @@
         <v>-0.074309211442834</v>
       </c>
       <c r="X10" t="n">
-        <v>0.125</v>
+        <v>0.315068493150685</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0815217391304348</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -2647,10 +2647,10 @@
         <v>-0.163286048377628</v>
       </c>
       <c r="X11" t="n">
-        <v>0.21195652173913</v>
+        <v>0.534246575342466</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.141304347826087</v>
+        <v>0.371428571428571</v>
       </c>
       <c r="Z11" t="s">
         <v>49</v>
@@ -2739,10 +2739,10 @@
         <v>1.55325032676294</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0706521739130435</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
@@ -2831,10 +2831,10 @@
         <v>-0.0873600821854024</v>
       </c>
       <c r="X13" t="n">
-        <v>0.266304347826087</v>
+        <v>0.671232876712329</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.21195652173913</v>
+        <v>0.557142857142857</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
@@ -2923,10 +2923,10 @@
         <v>0.841105378624574</v>
       </c>
       <c r="X14" t="n">
-        <v>0.184782608695652</v>
+        <v>0.465753424657534</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.228260869565217</v>
+        <v>0.6</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -3015,10 +3015,10 @@
         <v>-0.930745719750178</v>
       </c>
       <c r="X15" t="n">
-        <v>0.391304347826087</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.326086956521739</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -3107,10 +3107,10 @@
         <v>1.67295037523644</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0271739130434783</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -3199,10 +3199,10 @@
         <v>-0.754171063525335</v>
       </c>
       <c r="X17" t="n">
-        <v>0.103260869565217</v>
+        <v>0.26027397260274</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z17" t="s">
         <v>61</v>
@@ -3291,10 +3291,10 @@
         <v>-0.700411036106961</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0271739130434783</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z18" t="s">
         <v>63</v>
@@ -3383,10 +3383,10 @@
         <v>-0.782569748483225</v>
       </c>
       <c r="X19" t="n">
-        <v>0.195652173913043</v>
+        <v>0.493150684931507</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.184782608695652</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="Z19" t="s">
         <v>65</v>
@@ -3475,10 +3475,10 @@
         <v>-0.641583330509648</v>
       </c>
       <c r="X20" t="n">
-        <v>0.239130434782609</v>
+        <v>0.602739726027397</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.135869565217391</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Z20" t="s">
         <v>67</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.103260869565217</v>
+        <v>0.271428571428571</v>
       </c>
       <c r="Z21" t="s">
         <v>69</v>
@@ -3659,10 +3659,10 @@
         <v>-1.20682269743671</v>
       </c>
       <c r="X22" t="n">
-        <v>0.33695652173913</v>
+        <v>0.849315068493151</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.228260869565217</v>
+        <v>0.6</v>
       </c>
       <c r="Z22" t="s">
         <v>71</v>
@@ -3751,10 +3751,10 @@
         <v>0.97004715816249</v>
       </c>
       <c r="X23" t="n">
-        <v>0.206521739130435</v>
+        <v>0.520547945205479</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.130434782608696</v>
+        <v>0.342857142857143</v>
       </c>
       <c r="Z23" t="s">
         <v>73</v>
@@ -3843,10 +3843,10 @@
         <v>-0.583149888838513</v>
       </c>
       <c r="X24" t="n">
-        <v>0.391304347826087</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.282608695652174</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="Z24" t="s">
         <v>75</v>
@@ -3935,10 +3935,10 @@
         <v>2.50394316319163</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0597826086956522</v>
+        <v>0.157142857142857</v>
       </c>
       <c r="Z25" t="s">
         <v>77</v>
@@ -4027,10 +4027,10 @@
         <v>0.219666352688567</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z26" t="s">
         <v>79</v>
@@ -4119,10 +4119,10 @@
         <v>-0.961091650183217</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.016304347826087</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Z27" t="s">
         <v>81</v>
@@ -4211,10 +4211,10 @@
         <v>0.00476669497934349</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0108695652173913</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="Z28" t="s">
         <v>83</v>
@@ -4303,10 +4303,10 @@
         <v>-0.513918009262156</v>
       </c>
       <c r="X29" t="n">
-        <v>0.369565217391304</v>
+        <v>0.931506849315068</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.331521739130435</v>
+        <v>0.871428571428571</v>
       </c>
       <c r="Z29" t="s">
         <v>85</v>
@@ -4395,10 +4395,10 @@
         <v>0.584194497150678</v>
       </c>
       <c r="X30" t="n">
-        <v>0.146739130434783</v>
+        <v>0.36986301369863</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.119565217391304</v>
+        <v>0.314285714285714</v>
       </c>
       <c r="Z30" t="s">
         <v>87</v>
@@ -4487,7 +4487,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Z32" t="s">
         <v>91</v>
@@ -4671,10 +4671,10 @@
         <v>1.3787708124532</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0978260869565217</v>
+        <v>0.246575342465753</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Z33" t="s">
         <v>93</v>
@@ -4763,10 +4763,10 @@
         <v>0.0608115547879948</v>
       </c>
       <c r="X34" t="n">
-        <v>0.396739130434783</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.347826086956522</v>
+        <v>0.914285714285714</v>
       </c>
       <c r="Z34" t="s">
         <v>95</v>
@@ -4855,10 +4855,10 @@
         <v>-1.33072481773591</v>
       </c>
       <c r="X35" t="n">
-        <v>0.315217391304348</v>
+        <v>0.794520547945205</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.179347826086957</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Z35" t="s">
         <v>97</v>
@@ -4947,10 +4947,10 @@
         <v>0.829724571415339</v>
       </c>
       <c r="X36" t="n">
-        <v>0.320652173913043</v>
+        <v>0.808219178082192</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.315217391304348</v>
+        <v>0.828571428571429</v>
       </c>
       <c r="Z36" t="s">
         <v>99</v>
@@ -5039,10 +5039,10 @@
         <v>-0.36949371006636</v>
       </c>
       <c r="X37" t="n">
-        <v>0.347826086956522</v>
+        <v>0.876712328767123</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.168478260869565</v>
+        <v>0.442857142857143</v>
       </c>
       <c r="Z37" t="s">
         <v>101</v>
@@ -5131,10 +5131,10 @@
         <v>0.798909783104879</v>
       </c>
       <c r="X38" t="n">
-        <v>0.396739130434783</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.358695652173913</v>
+        <v>0.942857142857143</v>
       </c>
       <c r="Z38" t="s">
         <v>103</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Z39" t="s">
         <v>105</v>
@@ -5315,10 +5315,10 @@
         <v>-0.595218034555258</v>
       </c>
       <c r="X40" t="n">
-        <v>0.375</v>
+        <v>0.945205479452055</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.320652173913043</v>
+        <v>0.842857142857143</v>
       </c>
       <c r="Z40" t="s">
         <v>107</v>
@@ -5407,10 +5407,10 @@
         <v>-0.822625453035751</v>
       </c>
       <c r="X41" t="n">
-        <v>0.28804347826087</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0978260869565217</v>
+        <v>0.257142857142857</v>
       </c>
       <c r="Z41" t="s">
         <v>109</v>
@@ -5499,10 +5499,10 @@
         <v>0.204253666817034</v>
       </c>
       <c r="X42" t="n">
-        <v>0.114130434782609</v>
+        <v>0.287671232876712</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0760869565217391</v>
+        <v>0.2</v>
       </c>
       <c r="Z42" t="s">
         <v>111</v>
@@ -5591,10 +5591,10 @@
         <v>-0.46121583700967</v>
       </c>
       <c r="X43" t="n">
-        <v>0.28804347826087</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.130434782608696</v>
+        <v>0.342857142857143</v>
       </c>
       <c r="Z43" t="s">
         <v>113</v>
@@ -5683,10 +5683,10 @@
         <v>5.51686146116855</v>
       </c>
       <c r="X44" t="n">
-        <v>0.00543478260869565</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Z44" t="s">
         <v>115</v>
@@ -5775,10 +5775,10 @@
         <v>-0.69320548567429</v>
       </c>
       <c r="X45" t="n">
-        <v>0.119565217391304</v>
+        <v>0.301369863013699</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.0706521739130435</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="Z45" t="s">
         <v>117</v>
@@ -5867,10 +5867,10 @@
         <v>-2.09881203716768</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0543478260869565</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.016304347826087</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Z46" t="s">
         <v>119</v>
@@ -5959,10 +5959,10 @@
         <v>-1.23217999408731</v>
       </c>
       <c r="X47" t="n">
-        <v>0.33695652173913</v>
+        <v>0.849315068493151</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.173913043478261</v>
+        <v>0.457142857142857</v>
       </c>
       <c r="Z47" t="s">
         <v>121</v>
@@ -6051,10 +6051,10 @@
         <v>-3.6594635291659</v>
       </c>
       <c r="X48" t="n">
-        <v>0.271739130434783</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Z48" t="s">
         <v>123</v>
@@ -6143,10 +6143,10 @@
         <v>-1.00479513672637</v>
       </c>
       <c r="X49" t="n">
-        <v>0.179347826086957</v>
+        <v>0.452054794520548</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0543478260869565</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z49" t="s">
         <v>125</v>
@@ -6235,10 +6235,10 @@
         <v>0.44063885953998</v>
       </c>
       <c r="X50" t="n">
-        <v>0.173913043478261</v>
+        <v>0.438356164383562</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.217391304347826</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Z50" t="s">
         <v>127</v>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.173913043478261</v>
+        <v>0.457142857142857</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -6419,10 +6419,10 @@
         <v>-0.897311448449227</v>
       </c>
       <c r="X52" t="n">
-        <v>0.353260869565217</v>
+        <v>0.89041095890411</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.25</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="Z52" t="s">
         <v>131</v>
@@ -6511,10 +6511,10 @@
         <v>-1.12324925531822</v>
       </c>
       <c r="X53" t="n">
-        <v>0.358695652173913</v>
+        <v>0.904109589041096</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.239130434782609</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="Z53" t="s">
         <v>133</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Z54" t="s">
         <v>135</v>
@@ -6695,10 +6695,10 @@
         <v>-1.09695808175359</v>
       </c>
       <c r="X55" t="n">
-        <v>0.239130434782609</v>
+        <v>0.602739726027397</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.108695652173913</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Z55" t="s">
         <v>137</v>
@@ -6787,10 +6787,10 @@
         <v>-1.58937949467119</v>
       </c>
       <c r="X56" t="n">
-        <v>0.380434782608696</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.293478260869565</v>
+        <v>0.771428571428571</v>
       </c>
       <c r="Z56" t="s">
         <v>139</v>
@@ -6879,10 +6879,10 @@
         <v>0.106254761940101</v>
       </c>
       <c r="X57" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.0706521739130435</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="Z57" t="s">
         <v>141</v>
@@ -6971,10 +6971,10 @@
         <v>2.15426322810057</v>
       </c>
       <c r="X58" t="n">
-        <v>0.00543478260869565</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.1</v>
       </c>
       <c r="Z58" t="s">
         <v>143</v>
@@ -7063,10 +7063,10 @@
         <v>-1.49803896083661</v>
       </c>
       <c r="X59" t="n">
-        <v>0.0706521739130435</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.016304347826087</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Z59" t="s">
         <v>145</v>
@@ -7155,10 +7155,10 @@
         <v>-0.142877241321316</v>
       </c>
       <c r="X60" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.0597826086956522</v>
+        <v>0.157142857142857</v>
       </c>
       <c r="Z60" t="s">
         <v>147</v>
@@ -7247,10 +7247,10 @@
         <v>2.35518017631202</v>
       </c>
       <c r="X61" t="n">
-        <v>0.135869565217391</v>
+        <v>0.342465753424658</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.239130434782609</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="Z61" t="s">
         <v>149</v>
@@ -7339,10 +7339,10 @@
         <v>-3.38924894940261</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0815217391304348</v>
+        <v>0.205479452054795</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Z62" t="s">
         <v>151</v>
@@ -7431,10 +7431,10 @@
         <v>-0.375096821153418</v>
       </c>
       <c r="X63" t="n">
-        <v>0.391304347826087</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.304347826086957</v>
+        <v>0.8</v>
       </c>
       <c r="Z63" t="s">
         <v>153</v>
@@ -7523,10 +7523,10 @@
         <v>-0.45162370859761</v>
       </c>
       <c r="X64" t="n">
-        <v>0.0543478260869565</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.0760869565217391</v>
+        <v>0.2</v>
       </c>
       <c r="Z64" t="s">
         <v>155</v>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z65" t="s">
         <v>157</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Z66" t="s">
         <v>159</v>
@@ -7799,10 +7799,10 @@
         <v>1.25030627648715</v>
       </c>
       <c r="X67" t="n">
-        <v>0.201086956521739</v>
+        <v>0.506849315068493</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.184782608695652</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="Z67" t="s">
         <v>161</v>
@@ -7891,10 +7891,10 @@
         <v>2.31893427717231</v>
       </c>
       <c r="X68" t="n">
-        <v>0.125</v>
+        <v>0.315068493150685</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.157608695652174</v>
+        <v>0.414285714285714</v>
       </c>
       <c r="Z68" t="s">
         <v>163</v>
@@ -7983,10 +7983,10 @@
         <v>7.13058056757618</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0108695652173913</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.108695652173913</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Z69" t="s">
         <v>165</v>
@@ -8075,10 +8075,10 @@
         <v>-3.56305670270219</v>
       </c>
       <c r="X70" t="n">
-        <v>0.119565217391304</v>
+        <v>0.301369863013699</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="Z70" t="s">
         <v>167</v>
@@ -8167,10 +8167,10 @@
         <v>0.947347175052751</v>
       </c>
       <c r="X71" t="n">
-        <v>0.206521739130435</v>
+        <v>0.520547945205479</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.195652173913043</v>
+        <v>0.514285714285714</v>
       </c>
       <c r="Z71" t="s">
         <v>169</v>
@@ -8259,10 +8259,10 @@
         <v>-2.37794290344264</v>
       </c>
       <c r="X72" t="n">
-        <v>0.353260869565217</v>
+        <v>0.89041095890411</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.222826086956522</v>
+        <v>0.585714285714286</v>
       </c>
       <c r="Z72" t="s">
         <v>171</v>
@@ -8351,10 +8351,10 @@
         <v>1.18343122164052</v>
       </c>
       <c r="X73" t="n">
-        <v>0.201086956521739</v>
+        <v>0.506849315068493</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.233695652173913</v>
+        <v>0.614285714285714</v>
       </c>
       <c r="Z73" t="s">
         <v>173</v>
@@ -8443,10 +8443,10 @@
         <v>-1.4504139498357</v>
       </c>
       <c r="X74" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.219178082191781</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.0326086956521739</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="Z74" t="s">
         <v>175</v>
@@ -8535,10 +8535,10 @@
         <v>1.64612685756347</v>
       </c>
       <c r="X75" t="n">
-        <v>0.130434782608696</v>
+        <v>0.328767123287671</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.0271739130434783</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z75" t="s">
         <v>177</v>
@@ -8627,10 +8627,10 @@
         <v>-3.07991006207109</v>
       </c>
       <c r="X76" t="n">
-        <v>0.135869565217391</v>
+        <v>0.342465753424658</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z76" t="s">
         <v>179</v>
@@ -8719,10 +8719,10 @@
         <v>-2.38702836433707</v>
       </c>
       <c r="X77" t="n">
-        <v>0.114130434782609</v>
+        <v>0.287671232876712</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.0271739130434783</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z77" t="s">
         <v>181</v>
@@ -8811,10 +8811,10 @@
         <v>-0.0848676677298374</v>
       </c>
       <c r="X78" t="n">
-        <v>0.152173913043478</v>
+        <v>0.383561643835616</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.108695652173913</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Z78" t="s">
         <v>183</v>
@@ -8903,10 +8903,10 @@
         <v>3.17999311508185</v>
       </c>
       <c r="X79" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.16304347826087</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Z79" t="s">
         <v>185</v>
@@ -8995,10 +8995,10 @@
         <v>-0.77093219677796</v>
       </c>
       <c r="X80" t="n">
-        <v>0.396739130434783</v>
+        <v>1</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.342391304347826</v>
+        <v>0.9</v>
       </c>
       <c r="Z80" t="s">
         <v>187</v>
@@ -9087,10 +9087,10 @@
         <v>-0.50080850057842</v>
       </c>
       <c r="X81" t="n">
-        <v>0.228260869565217</v>
+        <v>0.575342465753425</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Z81" t="s">
         <v>189</v>
@@ -9179,10 +9179,10 @@
         <v>-1.18771106746537</v>
       </c>
       <c r="X82" t="n">
-        <v>0.331521739130435</v>
+        <v>0.835616438356164</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.201086956521739</v>
+        <v>0.528571428571429</v>
       </c>
       <c r="Z82" t="s">
         <v>191</v>
@@ -9271,10 +9271,10 @@
         <v>-1.23173368959429</v>
       </c>
       <c r="X83" t="n">
-        <v>0.108695652173913</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.1</v>
       </c>
       <c r="Z83" t="s">
         <v>193</v>
@@ -9363,10 +9363,10 @@
         <v>-0.237737791165735</v>
       </c>
       <c r="X84" t="n">
-        <v>0.130434782608696</v>
+        <v>0.328767123287671</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.108695652173913</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Z84" t="s">
         <v>195</v>
@@ -9455,10 +9455,10 @@
         <v>-1.33642304601457</v>
       </c>
       <c r="X85" t="n">
-        <v>0.342391304347826</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.179347826086957</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Z85" t="s">
         <v>197</v>
@@ -9547,10 +9547,10 @@
         <v>0.698596203978942</v>
       </c>
       <c r="X86" t="n">
-        <v>0.00543478260869565</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Z86" t="s">
         <v>199</v>
@@ -9639,10 +9639,10 @@
         <v>-0.351609448682177</v>
       </c>
       <c r="X87" t="n">
-        <v>0.385869565217391</v>
+        <v>0.972602739726027</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.342391304347826</v>
+        <v>0.9</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -9731,10 +9731,10 @@
         <v>1.95714771933076</v>
       </c>
       <c r="X88" t="n">
-        <v>0.0271739130434783</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.0706521739130435</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="Z88" t="s">
         <v>203</v>
@@ -9823,10 +9823,10 @@
         <v>-0.709609564504575</v>
       </c>
       <c r="X89" t="n">
-        <v>0.28804347826087</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.157608695652174</v>
+        <v>0.414285714285714</v>
       </c>
       <c r="Z89" t="s">
         <v>205</v>
@@ -9915,10 +9915,10 @@
         <v>-1.05296127220693</v>
       </c>
       <c r="X90" t="n">
-        <v>0.195652173913043</v>
+        <v>0.493150684931507</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.228571428571429</v>
       </c>
       <c r="Z90" t="s">
         <v>207</v>
@@ -10007,10 +10007,10 @@
         <v>0.523648763304901</v>
       </c>
       <c r="X91" t="n">
-        <v>0.347826086956522</v>
+        <v>0.876712328767123</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.260869565217391</v>
+        <v>0.685714285714286</v>
       </c>
       <c r="Z91" t="s">
         <v>209</v>
@@ -10099,10 +10099,10 @@
         <v>1.01436273638279</v>
       </c>
       <c r="X92" t="n">
-        <v>0.114130434782609</v>
+        <v>0.287671232876712</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.0543478260869565</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z92" t="s">
         <v>211</v>
@@ -10191,10 +10191,10 @@
         <v>-4.96847816838141</v>
       </c>
       <c r="X93" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="Z93" t="s">
         <v>213</v>
@@ -10283,10 +10283,10 @@
         <v>0.0657745666399574</v>
       </c>
       <c r="X94" t="n">
-        <v>0.380434782608696</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.277173913043478</v>
+        <v>0.728571428571429</v>
       </c>
       <c r="Z94" t="s">
         <v>215</v>
@@ -10375,10 +10375,10 @@
         <v>-4.77643221204616</v>
       </c>
       <c r="X95" t="n">
-        <v>0.114130434782609</v>
+        <v>0.287671232876712</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Z95" t="s">
         <v>217</v>
@@ -10467,10 +10467,10 @@
         <v>-1.94183975448162</v>
       </c>
       <c r="X96" t="n">
-        <v>0.21195652173913</v>
+        <v>0.534246575342466</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.1</v>
       </c>
       <c r="Z96" t="s">
         <v>219</v>
@@ -10559,10 +10559,10 @@
         <v>0.0823613633782101</v>
       </c>
       <c r="X97" t="n">
-        <v>0.331521739130435</v>
+        <v>0.835616438356164</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.168478260869565</v>
+        <v>0.442857142857143</v>
       </c>
       <c r="Z97" t="s">
         <v>221</v>
@@ -10651,10 +10651,10 @@
         <v>-0.153406767903968</v>
       </c>
       <c r="X98" t="n">
-        <v>0.168478260869565</v>
+        <v>0.424657534246575</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.103260869565217</v>
+        <v>0.271428571428571</v>
       </c>
       <c r="Z98" t="s">
         <v>223</v>
@@ -10743,10 +10743,10 @@
         <v>-1.29168914406019</v>
       </c>
       <c r="X99" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.1</v>
       </c>
       <c r="Z99" t="s">
         <v>225</v>
@@ -10835,10 +10835,10 @@
         <v>-3.95558235926959</v>
       </c>
       <c r="X100" t="n">
-        <v>0.0706521739130435</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.00543478260869565</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="Z100" t="s">
         <v>227</v>
@@ -10927,10 +10927,10 @@
         <v>1.0740399265946</v>
       </c>
       <c r="X101" t="n">
-        <v>0.217391304347826</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.233695652173913</v>
+        <v>0.614285714285714</v>
       </c>
       <c r="Z101" t="s">
         <v>229</v>
@@ -11022,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.119565217391304</v>
+        <v>0.314285714285714</v>
       </c>
       <c r="Z102" t="s">
         <v>231</v>
@@ -11111,10 +11111,10 @@
         <v>-1.48723115600241</v>
       </c>
       <c r="X103" t="n">
-        <v>0.119565217391304</v>
+        <v>0.301369863013699</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.0815217391304348</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z103" t="s">
         <v>233</v>
@@ -11203,10 +11203,10 @@
         <v>-2.92948888473348</v>
       </c>
       <c r="X104" t="n">
-        <v>0.195652173913043</v>
+        <v>0.493150684931507</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.0543478260869565</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z104" t="s">
         <v>235</v>
@@ -11295,10 +11295,10 @@
         <v>0.489503376835032</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0597826086956522</v>
+        <v>0.150684931506849</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.0543478260869565</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z105" t="s">
         <v>237</v>
@@ -11387,10 +11387,10 @@
         <v>7.00248322236709</v>
       </c>
       <c r="X106" t="n">
-        <v>0.0815217391304348</v>
+        <v>0.205479452054795</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.195652173913043</v>
+        <v>0.514285714285714</v>
       </c>
       <c r="Z106" t="s">
         <v>239</v>
@@ -11479,10 +11479,10 @@
         <v>-0.485444724814023</v>
       </c>
       <c r="X107" t="n">
-        <v>0.369565217391304</v>
+        <v>0.931506849315068</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.298913043478261</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="Z107" t="s">
         <v>241</v>
@@ -11571,10 +11571,10 @@
         <v>1.14648112506553</v>
       </c>
       <c r="X108" t="n">
-        <v>0.25</v>
+        <v>0.63013698630137</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.266304347826087</v>
+        <v>0.7</v>
       </c>
       <c r="Z108" t="s">
         <v>243</v>
@@ -11663,10 +11663,10 @@
         <v>-1.27693933386349</v>
       </c>
       <c r="X109" t="n">
-        <v>0.353260869565217</v>
+        <v>0.89041095890411</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.239130434782609</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="Z109" t="s">
         <v>245</v>
@@ -11755,10 +11755,10 @@
         <v>-6.54137818412218</v>
       </c>
       <c r="X110" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.00543478260869565</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="Z110" t="s">
         <v>247</v>
@@ -11847,10 +11847,10 @@
         <v>0.204268964882345</v>
       </c>
       <c r="X111" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.0760869565217391</v>
+        <v>0.2</v>
       </c>
       <c r="Z111" t="s">
         <v>249</v>
@@ -11939,10 +11939,10 @@
         <v>-0.697411695476227</v>
       </c>
       <c r="X112" t="n">
-        <v>0.396739130434783</v>
+        <v>1</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.353260869565217</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="Z112" t="s">
         <v>251</v>
@@ -12031,10 +12031,10 @@
         <v>0.586079341499745</v>
       </c>
       <c r="X113" t="n">
-        <v>0.266304347826087</v>
+        <v>0.671232876712329</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.260869565217391</v>
+        <v>0.685714285714286</v>
       </c>
       <c r="Z113" t="s">
         <v>253</v>
@@ -12123,10 +12123,10 @@
         <v>0.237913836331497</v>
       </c>
       <c r="X114" t="n">
-        <v>0.320652173913043</v>
+        <v>0.808219178082192</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.190217391304348</v>
+        <v>0.5</v>
       </c>
       <c r="Z114" t="s">
         <v>255</v>
@@ -12215,10 +12215,10 @@
         <v>-0.201192651417494</v>
       </c>
       <c r="X115" t="n">
-        <v>0.320652173913043</v>
+        <v>0.808219178082192</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.222826086956522</v>
+        <v>0.585714285714286</v>
       </c>
       <c r="Z115" t="s">
         <v>257</v>
@@ -12307,10 +12307,10 @@
         <v>0.166009993156635</v>
       </c>
       <c r="X116" t="n">
-        <v>0.326086956521739</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.179347826086957</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Z116" t="s">
         <v>259</v>
@@ -12399,10 +12399,10 @@
         <v>0.703577974539484</v>
       </c>
       <c r="X117" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.1</v>
       </c>
       <c r="Z117" t="s">
         <v>261</v>
@@ -12491,10 +12491,10 @@
         <v>-1.13231035690718</v>
       </c>
       <c r="X118" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.0271739130434783</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z118" t="s">
         <v>263</v>
@@ -12583,10 +12583,10 @@
         <v>0.555176767721859</v>
       </c>
       <c r="X119" t="n">
-        <v>0.385869565217391</v>
+        <v>0.972602739726027</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.304347826086957</v>
+        <v>0.8</v>
       </c>
       <c r="Z119" t="s">
         <v>265</v>
@@ -12675,10 +12675,10 @@
         <v>-0.734596050721627</v>
       </c>
       <c r="X120" t="n">
-        <v>0.353260869565217</v>
+        <v>0.89041095890411</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.260869565217391</v>
+        <v>0.685714285714286</v>
       </c>
       <c r="Z120" t="s">
         <v>267</v>
@@ -12767,10 +12767,10 @@
         <v>-1.37083992830506</v>
       </c>
       <c r="X121" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z121" t="s">
         <v>269</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.0760869565217391</v>
+        <v>0.2</v>
       </c>
       <c r="Z122" t="s">
         <v>271</v>
@@ -12951,10 +12951,10 @@
         <v>-0.62963631097906</v>
       </c>
       <c r="X123" t="n">
-        <v>0.309782608695652</v>
+        <v>0.780821917808219</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.179347826086957</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Z123" t="s">
         <v>273</v>
@@ -13043,10 +13043,10 @@
         <v>-0.898325578160557</v>
       </c>
       <c r="X124" t="n">
-        <v>0.0597826086956522</v>
+        <v>0.150684931506849</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.0543478260869565</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Z124" t="s">
         <v>275</v>
@@ -13135,10 +13135,10 @@
         <v>-2.03671390810064</v>
       </c>
       <c r="X125" t="n">
-        <v>0.125</v>
+        <v>0.315068493150685</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.0326086956521739</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="Z125" t="s">
         <v>277</v>
@@ -13227,10 +13227,10 @@
         <v>-0.369575113173652</v>
       </c>
       <c r="X126" t="n">
-        <v>0.0706521739130435</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.1</v>
       </c>
       <c r="Z126" t="s">
         <v>279</v>
@@ -13319,10 +13319,10 @@
         <v>0.796899542052935</v>
       </c>
       <c r="X127" t="n">
-        <v>0.217391304347826</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.168478260869565</v>
+        <v>0.442857142857143</v>
       </c>
       <c r="Z127" t="s">
         <v>281</v>
@@ -13414,7 +13414,7 @@
         <v>0</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.217391304347826</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Z128" t="s">
         <v>283</v>
@@ -13503,10 +13503,10 @@
         <v>-1.53861384570088</v>
       </c>
       <c r="X129" t="n">
-        <v>0.119565217391304</v>
+        <v>0.301369863013699</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="Z129" t="s">
         <v>285</v>
@@ -13595,10 +13595,10 @@
         <v>-0.235019922500893</v>
       </c>
       <c r="X130" t="n">
-        <v>0.228260869565217</v>
+        <v>0.575342465753425</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.130434782608696</v>
+        <v>0.342857142857143</v>
       </c>
       <c r="Z130" t="s">
         <v>287</v>
@@ -13687,10 +13687,10 @@
         <v>1.84070142623189</v>
       </c>
       <c r="X131" t="n">
-        <v>0.179347826086957</v>
+        <v>0.452054794520548</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.152173913043478</v>
+        <v>0.4</v>
       </c>
       <c r="Z131" t="s">
         <v>289</v>
@@ -13779,10 +13779,10 @@
         <v>1.43864741768025</v>
       </c>
       <c r="X132" t="n">
-        <v>0.173913043478261</v>
+        <v>0.438356164383562</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.152173913043478</v>
+        <v>0.4</v>
       </c>
       <c r="Z132" t="s">
         <v>291</v>
@@ -13871,10 +13871,10 @@
         <v>-1.17515558477872</v>
       </c>
       <c r="X133" t="n">
-        <v>0.271739130434783</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.0706521739130435</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="Z133" t="s">
         <v>293</v>
@@ -13963,10 +13963,10 @@
         <v>-0.501556442212893</v>
       </c>
       <c r="X134" t="n">
-        <v>0.369565217391304</v>
+        <v>0.931506849315068</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.179347826086957</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Z134" t="s">
         <v>295</v>
@@ -14055,10 +14055,10 @@
         <v>2.9446957073152</v>
       </c>
       <c r="X135" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z135" t="s">
         <v>297</v>
@@ -14147,10 +14147,10 @@
         <v>-2.1749194424115</v>
       </c>
       <c r="X136" t="n">
-        <v>0.0597826086956522</v>
+        <v>0.150684931506849</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.1</v>
       </c>
       <c r="Z136" t="s">
         <v>299</v>
@@ -14239,10 +14239,10 @@
         <v>-1.40344547936538</v>
       </c>
       <c r="X137" t="n">
-        <v>0.347826086956522</v>
+        <v>0.876712328767123</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.201086956521739</v>
+        <v>0.528571428571429</v>
       </c>
       <c r="Z137" t="s">
         <v>301</v>
@@ -14331,10 +14331,10 @@
         <v>-0.417832226820199</v>
       </c>
       <c r="X138" t="n">
-        <v>0.239130434782609</v>
+        <v>0.602739726027397</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.157608695652174</v>
+        <v>0.414285714285714</v>
       </c>
       <c r="Z138" t="s">
         <v>303</v>
@@ -14423,10 +14423,10 @@
         <v>-0.716148734465316</v>
       </c>
       <c r="X139" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="Z139" t="s">
         <v>305</v>
@@ -14515,10 +14515,10 @@
         <v>-1.44078992591393</v>
       </c>
       <c r="X140" t="n">
-        <v>0.375</v>
+        <v>0.945205479452055</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.25</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="Z140" t="s">
         <v>307</v>
@@ -14607,10 +14607,10 @@
         <v>-0.876980288576709</v>
       </c>
       <c r="X141" t="n">
-        <v>0.157608695652174</v>
+        <v>0.397260273972603</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Z141" t="s">
         <v>309</v>
@@ -14702,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.0815217391304348</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z142" t="s">
         <v>311</v>
@@ -14791,10 +14791,10 @@
         <v>-1.61239521774916</v>
       </c>
       <c r="X143" t="n">
-        <v>0.25</v>
+        <v>0.63013698630137</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.168478260869565</v>
+        <v>0.442857142857143</v>
       </c>
       <c r="Z143" t="s">
         <v>313</v>
@@ -14883,10 +14883,10 @@
         <v>0.534847006117007</v>
       </c>
       <c r="X144" t="n">
-        <v>0.103260869565217</v>
+        <v>0.26027397260274</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Z144" t="s">
         <v>315</v>
@@ -14975,10 +14975,10 @@
         <v>-2.0683494030363</v>
       </c>
       <c r="X145" t="n">
-        <v>0.114130434782609</v>
+        <v>0.287671232876712</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.1</v>
       </c>
       <c r="Z145" t="s">
         <v>317</v>
@@ -15067,10 +15067,10 @@
         <v>-0.66934566630237</v>
       </c>
       <c r="X146" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.228571428571429</v>
       </c>
       <c r="Z146" t="s">
         <v>319</v>
@@ -15159,10 +15159,10 @@
         <v>-0.364608027380699</v>
       </c>
       <c r="X147" t="n">
-        <v>0.255434782608696</v>
+        <v>0.643835616438356</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.114130434782609</v>
+        <v>0.3</v>
       </c>
       <c r="Z147" t="s">
         <v>321</v>
@@ -15251,10 +15251,10 @@
         <v>1.5231656088794</v>
       </c>
       <c r="X148" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.0706521739130435</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="Z148" t="s">
         <v>323</v>
@@ -15343,10 +15343,10 @@
         <v>0.716643507139051</v>
       </c>
       <c r="X149" t="n">
-        <v>0.0815217391304348</v>
+        <v>0.205479452054795</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Z149" t="s">
         <v>325</v>
@@ -15435,10 +15435,10 @@
         <v>0.0356720709073604</v>
       </c>
       <c r="X150" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.016304347826087</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Z150" t="s">
         <v>327</v>
@@ -15530,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.108695652173913</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Z151" t="s">
         <v>329</v>
@@ -15622,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.152173913043478</v>
+        <v>0.4</v>
       </c>
       <c r="Z152" t="s">
         <v>331</v>
@@ -15714,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.0597826086956522</v>
+        <v>0.157142857142857</v>
       </c>
       <c r="Z153" t="s">
         <v>333</v>
@@ -15803,10 +15803,10 @@
         <v>-0.827496641679867</v>
       </c>
       <c r="X154" t="n">
-        <v>0.0978260869565217</v>
+        <v>0.246575342465753</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z154" t="s">
         <v>335</v>
@@ -15895,10 +15895,10 @@
         <v>5.55502119441401</v>
       </c>
       <c r="X155" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.21195652173913</v>
+        <v>0.557142857142857</v>
       </c>
       <c r="Z155" t="s">
         <v>337</v>
@@ -15990,7 +15990,7 @@
         <v>0</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.0597826086956522</v>
+        <v>0.157142857142857</v>
       </c>
       <c r="Z156" t="s">
         <v>339</v>
@@ -16079,10 +16079,10 @@
         <v>-1.519287644138</v>
       </c>
       <c r="X157" t="n">
-        <v>0.0815217391304348</v>
+        <v>0.205479452054795</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.016304347826087</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Z157" t="s">
         <v>341</v>
@@ -16171,10 +16171,10 @@
         <v>-0.691673027363628</v>
       </c>
       <c r="X158" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.016304347826087</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Z158" t="s">
         <v>343</v>
@@ -16263,10 +16263,10 @@
         <v>-1.91590292881348</v>
       </c>
       <c r="X159" t="n">
-        <v>0.195652173913043</v>
+        <v>0.493150684931507</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.152173913043478</v>
+        <v>0.4</v>
       </c>
       <c r="Z159" t="s">
         <v>345</v>
@@ -16355,10 +16355,10 @@
         <v>1.71289146206119</v>
       </c>
       <c r="X160" t="n">
-        <v>0.385869565217391</v>
+        <v>0.972602739726027</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.326086956521739</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="Z160" t="s">
         <v>347</v>
@@ -16447,10 +16447,10 @@
         <v>1.80006122044074</v>
       </c>
       <c r="X161" t="n">
-        <v>0.157608695652174</v>
+        <v>0.397260273972603</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.157608695652174</v>
+        <v>0.414285714285714</v>
       </c>
       <c r="Z161" t="s">
         <v>349</v>
@@ -16539,10 +16539,10 @@
         <v>0.116670345585907</v>
       </c>
       <c r="X162" t="n">
-        <v>0.304347826086957</v>
+        <v>0.767123287671233</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.222826086956522</v>
+        <v>0.585714285714286</v>
       </c>
       <c r="Z162" t="s">
         <v>351</v>
@@ -16631,10 +16631,10 @@
         <v>1.28967442293662</v>
       </c>
       <c r="X163" t="n">
-        <v>0.0869565217391304</v>
+        <v>0.219178082191781</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.125</v>
+        <v>0.328571428571429</v>
       </c>
       <c r="Z163" t="s">
         <v>353</v>
@@ -16723,10 +16723,10 @@
         <v>-2.39099276602131</v>
       </c>
       <c r="X164" t="n">
-        <v>0.217391304347826</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.0815217391304348</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Z164" t="s">
         <v>355</v>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.0978260869565217</v>
+        <v>0.257142857142857</v>
       </c>
       <c r="Z165" t="s">
         <v>357</v>
@@ -16907,10 +16907,10 @@
         <v>-0.66349080853101</v>
       </c>
       <c r="X166" t="n">
-        <v>0.16304347826087</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Z166" t="s">
         <v>359</v>
@@ -16999,10 +16999,10 @@
         <v>-0.485411736522871</v>
       </c>
       <c r="X167" t="n">
-        <v>0.0271739130434783</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Z167" t="s">
         <v>361</v>
@@ -17091,10 +17091,10 @@
         <v>1.03772058154657</v>
       </c>
       <c r="X168" t="n">
-        <v>0.375</v>
+        <v>0.945205479452055</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.364130434782609</v>
+        <v>0.957142857142857</v>
       </c>
       <c r="Z168" t="s">
         <v>363</v>
@@ -17183,10 +17183,10 @@
         <v>1.09870504458365</v>
       </c>
       <c r="X169" t="n">
-        <v>0.369565217391304</v>
+        <v>0.931506849315068</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.282608695652174</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="Z169" t="s">
         <v>365</v>
@@ -17275,10 +17275,10 @@
         <v>-1.77690239558514</v>
       </c>
       <c r="X170" t="n">
-        <v>0.320652173913043</v>
+        <v>0.808219178082192</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.239130434782609</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="Z170" t="s">
         <v>367</v>
@@ -17367,10 +17367,10 @@
         <v>-1.5563093909666</v>
       </c>
       <c r="X171" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.164383561643836</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.0271739130434783</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Z171" t="s">
         <v>369</v>
@@ -17459,10 +17459,10 @@
         <v>-4.27484949986095</v>
       </c>
       <c r="X172" t="n">
-        <v>0.0489130434782609</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.1</v>
       </c>
       <c r="Z172" t="s">
         <v>371</v>
@@ -17551,10 +17551,10 @@
         <v>-1.90565670272154</v>
       </c>
       <c r="X173" t="n">
-        <v>0.108695652173913</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.0326086956521739</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="Z173" t="s">
         <v>373</v>
@@ -17643,10 +17643,10 @@
         <v>-2.16451408299875</v>
       </c>
       <c r="X174" t="n">
-        <v>0.0706521739130435</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Z174" t="s">
         <v>375</v>
@@ -17735,10 +17735,10 @@
         <v>0.199408329888849</v>
       </c>
       <c r="X175" t="n">
-        <v>0.0706521739130435</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Z175" t="s">
         <v>377</v>
@@ -17827,10 +17827,10 @@
         <v>0.0627728825987634</v>
       </c>
       <c r="X176" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Z176" t="s">
         <v>379</v>
@@ -17919,10 +17919,10 @@
         <v>-0.603132298526875</v>
       </c>
       <c r="X177" t="n">
-        <v>0.260869565217391</v>
+        <v>0.657534246575342</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.184782608695652</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="Z177" t="s">
         <v>381</v>
@@ -18011,10 +18011,10 @@
         <v>-3.02029776777943</v>
       </c>
       <c r="X178" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.164383561643836</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.016304347826087</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Z178" t="s">
         <v>383</v>
@@ -18103,10 +18103,10 @@
         <v>0.161042463668956</v>
       </c>
       <c r="X179" t="n">
-        <v>0.353260869565217</v>
+        <v>0.89041095890411</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.25</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="Z179" t="s">
         <v>385</v>
@@ -18195,10 +18195,10 @@
         <v>0.786042113707311</v>
       </c>
       <c r="X180" t="n">
-        <v>0.315217391304348</v>
+        <v>0.794520547945205</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.228260869565217</v>
+        <v>0.6</v>
       </c>
       <c r="Z180" t="s">
         <v>387</v>
@@ -18287,10 +18287,10 @@
         <v>-0.176853487381242</v>
       </c>
       <c r="X181" t="n">
-        <v>0.320652173913043</v>
+        <v>0.808219178082192</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.173913043478261</v>
+        <v>0.457142857142857</v>
       </c>
       <c r="Z181" t="s">
         <v>389</v>
@@ -18379,10 +18379,10 @@
         <v>-4.98584864732135</v>
       </c>
       <c r="X182" t="n">
-        <v>0.0923913043478261</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.00543478260869565</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="Z182" t="s">
         <v>391</v>
@@ -18471,10 +18471,10 @@
         <v>-3.07591959180821</v>
       </c>
       <c r="X183" t="n">
-        <v>0.119565217391304</v>
+        <v>0.301369863013699</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Z183" t="s">
         <v>393</v>
@@ -18566,7 +18566,7 @@
         <v>0</v>
       </c>
       <c r="Y184" t="n">
-        <v>0.0978260869565217</v>
+        <v>0.257142857142857</v>
       </c>
       <c r="Z184" t="s">
         <v>395</v>
@@ -18655,10 +18655,10 @@
         <v>2.48995928937757</v>
       </c>
       <c r="X185" t="n">
-        <v>0.28804347826087</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.309782608695652</v>
+        <v>0.814285714285714</v>
       </c>
       <c r="Z185" t="s">
         <v>397</v>
@@ -18853,10 +18853,10 @@
         <v>0.368997417390356</v>
       </c>
       <c r="X2" t="n">
-        <v>0.133720930232558</v>
+        <v>0.328571428571429</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.47093023255814</v>
+        <v>0.58695652173913</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -18945,10 +18945,10 @@
         <v>0.940725441541673</v>
       </c>
       <c r="X3" t="n">
-        <v>0.063953488372093</v>
+        <v>0.157142857142857</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.197674418604651</v>
+        <v>0.246376811594203</v>
       </c>
       <c r="Z3" t="s">
         <v>35</v>
@@ -19037,10 +19037,10 @@
         <v>-0.168523567020158</v>
       </c>
       <c r="X4" t="n">
-        <v>0.203488372093023</v>
+        <v>0.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.412790697674419</v>
+        <v>0.514492753623188</v>
       </c>
       <c r="Z4" t="s">
         <v>37</v>
@@ -19129,10 +19129,10 @@
         <v>-0.210648479151389</v>
       </c>
       <c r="X5" t="n">
-        <v>0.191860465116279</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.401162790697674</v>
+        <v>0.5</v>
       </c>
       <c r="Z5" t="s">
         <v>39</v>
@@ -19221,10 +19221,10 @@
         <v>1.00897282785288</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0872093023255814</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.122093023255814</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Z6" t="s">
         <v>41</v>
@@ -19313,10 +19313,10 @@
         <v>-0.0885099448347279</v>
       </c>
       <c r="X7" t="n">
-        <v>0.337209302325581</v>
+        <v>0.828571428571429</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.656976744186046</v>
+        <v>0.818840579710145</v>
       </c>
       <c r="Z7" t="s">
         <v>43</v>
@@ -19405,10 +19405,10 @@
         <v>-1.55408877543393</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0872093023255814</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.13953488372093</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z8" t="s">
         <v>47</v>
@@ -19497,10 +19497,10 @@
         <v>0.583708147429079</v>
       </c>
       <c r="X9" t="n">
-        <v>0.151162790697674</v>
+        <v>0.371428571428571</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.377906976744186</v>
+        <v>0.471014492753623</v>
       </c>
       <c r="Z9" t="s">
         <v>49</v>
@@ -19589,10 +19589,10 @@
         <v>0.199472031253668</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.186046511627907</v>
+        <v>0.231884057971014</v>
       </c>
       <c r="Z10" t="s">
         <v>51</v>
@@ -19681,10 +19681,10 @@
         <v>0.504857184438924</v>
       </c>
       <c r="X11" t="n">
-        <v>0.226744186046512</v>
+        <v>0.557142857142857</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.447674418604651</v>
+        <v>0.557971014492754</v>
       </c>
       <c r="Z11" t="s">
         <v>53</v>
@@ -19773,10 +19773,10 @@
         <v>0.18089482997032</v>
       </c>
       <c r="X12" t="n">
-        <v>0.244186046511628</v>
+        <v>0.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.546511627906977</v>
+        <v>0.681159420289855</v>
       </c>
       <c r="Z12" t="s">
         <v>55</v>
@@ -19865,10 +19865,10 @@
         <v>0.68527196793444</v>
       </c>
       <c r="X13" t="n">
-        <v>0.348837209302326</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.732558139534884</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Z13" t="s">
         <v>57</v>
@@ -19957,10 +19957,10 @@
         <v>2.0879754336468</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0523255813953488</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.180232558139535</v>
+        <v>0.22463768115942</v>
       </c>
       <c r="Z14" t="s">
         <v>61</v>
@@ -20049,10 +20049,10 @@
         <v>0.19880874982893</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0523255813953488</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.180232558139535</v>
+        <v>0.22463768115942</v>
       </c>
       <c r="Z15" t="s">
         <v>63</v>
@@ -20141,10 +20141,10 @@
         <v>1.75101317727193</v>
       </c>
       <c r="X16" t="n">
-        <v>0.197674418604651</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.546511627906977</v>
+        <v>0.681159420289855</v>
       </c>
       <c r="Z16" t="s">
         <v>65</v>
@@ -20233,10 +20233,10 @@
         <v>0.258594785741824</v>
       </c>
       <c r="X17" t="n">
-        <v>0.145348837209302</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.244186046511628</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Z17" t="s">
         <v>67</v>
@@ -20325,10 +20325,10 @@
         <v>-1.08050709920941</v>
       </c>
       <c r="X18" t="n">
-        <v>0.11046511627907</v>
+        <v>0.271428571428571</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.0507246376811594</v>
       </c>
       <c r="Z18" t="s">
         <v>69</v>
@@ -20417,10 +20417,10 @@
         <v>1.21808387042142</v>
       </c>
       <c r="X19" t="n">
-        <v>0.244186046511628</v>
+        <v>0.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.529069767441861</v>
+        <v>0.659420289855073</v>
       </c>
       <c r="Z19" t="s">
         <v>71</v>
@@ -20509,10 +20509,10 @@
         <v>3.9678817479734</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0174418604651163</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.162790697674419</v>
+        <v>0.202898550724638</v>
       </c>
       <c r="Z20" t="s">
         <v>408</v>
@@ -20601,10 +20601,10 @@
         <v>-0.371534080950102</v>
       </c>
       <c r="X21" t="n">
-        <v>0.13953488372093</v>
+        <v>0.342857142857143</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.273255813953488</v>
+        <v>0.340579710144928</v>
       </c>
       <c r="Z21" t="s">
         <v>73</v>
@@ -20693,10 +20693,10 @@
         <v>-0.112328888615613</v>
       </c>
       <c r="X22" t="n">
-        <v>0.302325581395349</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.61046511627907</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="Z22" t="s">
         <v>75</v>
@@ -20785,10 +20785,10 @@
         <v>0.127590050608304</v>
       </c>
       <c r="X23" t="n">
-        <v>0.063953488372093</v>
+        <v>0.157142857142857</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.13953488372093</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z23" t="s">
         <v>77</v>
@@ -20877,10 +20877,10 @@
         <v>-2.48377570699205</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0523255813953488</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.0507246376811594</v>
       </c>
       <c r="Z24" t="s">
         <v>79</v>
@@ -20969,10 +20969,10 @@
         <v>0.107649662560752</v>
       </c>
       <c r="X25" t="n">
-        <v>0.354651162790698</v>
+        <v>0.871428571428571</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.720930232558139</v>
+        <v>0.898550724637681</v>
       </c>
       <c r="Z25" t="s">
         <v>85</v>
@@ -21061,10 +21061,10 @@
         <v>-2.27091285128752</v>
       </c>
       <c r="X26" t="n">
-        <v>0.127906976744186</v>
+        <v>0.314285714285714</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.174418604651163</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="Z26" t="s">
         <v>87</v>
@@ -21153,10 +21153,10 @@
         <v>1.12115588021935</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0174418604651163</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z27" t="s">
         <v>91</v>
@@ -21245,10 +21245,10 @@
         <v>-0.155164021112898</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.209302325581395</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Z28" t="s">
         <v>93</v>
@@ -21337,10 +21337,10 @@
         <v>-0.193314448455048</v>
       </c>
       <c r="X29" t="n">
-        <v>0.372093023255814</v>
+        <v>0.914285714285714</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.767441860465116</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Z29" t="s">
         <v>95</v>
@@ -21429,10 +21429,10 @@
         <v>0.566333434503418</v>
       </c>
       <c r="X30" t="n">
-        <v>0.191860465116279</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.395348837209302</v>
+        <v>0.492753623188406</v>
       </c>
       <c r="Z30" t="s">
         <v>97</v>
@@ -21521,10 +21521,10 @@
         <v>0.400382042002633</v>
       </c>
       <c r="X31" t="n">
-        <v>0.337209302325581</v>
+        <v>0.828571428571429</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.697674418604651</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="Z31" t="s">
         <v>99</v>
@@ -21613,10 +21613,10 @@
         <v>0.470059529391308</v>
       </c>
       <c r="X32" t="n">
-        <v>0.180232558139535</v>
+        <v>0.442857142857143</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.418604651162791</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Z32" t="s">
         <v>101</v>
@@ -21705,10 +21705,10 @@
         <v>-0.439887475071121</v>
       </c>
       <c r="X33" t="n">
-        <v>0.383720930232558</v>
+        <v>0.942857142857143</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.767441860465116</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Z33" t="s">
         <v>103</v>
@@ -21797,10 +21797,10 @@
         <v>-7.14393670898974</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0988372093023256</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0174418604651163</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z34" t="s">
         <v>105</v>
@@ -21889,10 +21889,10 @@
         <v>0.274819620541021</v>
       </c>
       <c r="X35" t="n">
-        <v>0.343023255813953</v>
+        <v>0.842857142857143</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.697674418604651</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="Z35" t="s">
         <v>107</v>
@@ -21981,10 +21981,10 @@
         <v>0.445019119299661</v>
       </c>
       <c r="X36" t="n">
-        <v>0.104651162790698</v>
+        <v>0.257142857142857</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.27906976744186</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Z36" t="s">
         <v>109</v>
@@ -22073,10 +22073,10 @@
         <v>-0.187827183925783</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0813953488372093</v>
+        <v>0.2</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.0507246376811594</v>
       </c>
       <c r="Z37" t="s">
         <v>111</v>
@@ -22165,10 +22165,10 @@
         <v>-0.25732252418414</v>
       </c>
       <c r="X38" t="n">
-        <v>0.13953488372093</v>
+        <v>0.342857142857143</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.308139534883721</v>
+        <v>0.384057971014493</v>
       </c>
       <c r="Z38" t="s">
         <v>113</v>
@@ -22257,10 +22257,10 @@
         <v>-0.305271993243781</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0465116279069767</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.191860465116279</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z39" t="s">
         <v>115</v>
@@ -22349,10 +22349,10 @@
         <v>-0.566234093761476</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0755813953488372</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.13953488372093</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z40" t="s">
         <v>117</v>
@@ -22441,10 +22441,10 @@
         <v>-0.448458757201629</v>
       </c>
       <c r="X41" t="n">
-        <v>0.186046511627907</v>
+        <v>0.457142857142857</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.331395348837209</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Z41" t="s">
         <v>121</v>
@@ -22533,10 +22533,10 @@
         <v>2.02250312012695</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.197674418604651</v>
+        <v>0.246376811594203</v>
       </c>
       <c r="Z42" t="s">
         <v>123</v>
@@ -22625,10 +22625,10 @@
         <v>0.367714997129949</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0581395348837209</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0930232558139535</v>
+        <v>0.115942028985507</v>
       </c>
       <c r="Z43" t="s">
         <v>125</v>
@@ -22717,10 +22717,10 @@
         <v>-0.604076832409509</v>
       </c>
       <c r="X44" t="n">
-        <v>0.232558139534884</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.505813953488372</v>
+        <v>0.630434782608696</v>
       </c>
       <c r="Z44" t="s">
         <v>127</v>
@@ -22809,7 +22809,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X45" t="n">
-        <v>0.186046511627907</v>
+        <v>0.457142857142857</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -22901,10 +22901,10 @@
         <v>-0.791346654150627</v>
       </c>
       <c r="X46" t="n">
-        <v>0.267441860465116</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.488372093023256</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="Z46" t="s">
         <v>131</v>
@@ -22993,10 +22993,10 @@
         <v>1.54001359077408</v>
       </c>
       <c r="X47" t="n">
-        <v>0.255813953488372</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.581395348837209</v>
+        <v>0.72463768115942</v>
       </c>
       <c r="Z47" t="s">
         <v>133</v>
@@ -23085,7 +23085,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0988372093023256</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
@@ -23177,10 +23177,10 @@
         <v>1.38657026279753</v>
       </c>
       <c r="X49" t="n">
-        <v>0.116279069767442</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.325581395348837</v>
+        <v>0.405797101449275</v>
       </c>
       <c r="Z49" t="s">
         <v>137</v>
@@ -23269,10 +23269,10 @@
         <v>0.666979212938764</v>
       </c>
       <c r="X50" t="n">
-        <v>0.313953488372093</v>
+        <v>0.771428571428571</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.627906976744186</v>
+        <v>0.782608695652174</v>
       </c>
       <c r="Z50" t="s">
         <v>139</v>
@@ -23361,10 +23361,10 @@
         <v>-0.661326565128463</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0755813953488372</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.162790697674419</v>
+        <v>0.202898550724638</v>
       </c>
       <c r="Z51" t="s">
         <v>141</v>
@@ -23453,10 +23453,10 @@
         <v>-0.753390582969544</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.1</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0755813953488372</v>
+        <v>0.0942028985507246</v>
       </c>
       <c r="Z52" t="s">
         <v>143</v>
@@ -23545,10 +23545,10 @@
         <v>0.677423839472744</v>
       </c>
       <c r="X53" t="n">
-        <v>0.063953488372093</v>
+        <v>0.157142857142857</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.116279069767442</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="Z53" t="s">
         <v>147</v>
@@ -23637,10 +23637,10 @@
         <v>-0.0323585814663666</v>
       </c>
       <c r="X54" t="n">
-        <v>0.255813953488372</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.412790697674419</v>
+        <v>0.514492753623188</v>
       </c>
       <c r="Z54" t="s">
         <v>149</v>
@@ -23729,10 +23729,10 @@
         <v>-1.41601602563512</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0465116279069767</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.0507246376811594</v>
       </c>
       <c r="Z55" t="s">
         <v>151</v>
@@ -23821,10 +23821,10 @@
         <v>0.990638309746426</v>
       </c>
       <c r="X56" t="n">
-        <v>0.325581395348837</v>
+        <v>0.8</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.732558139534884</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Z56" t="s">
         <v>153</v>
@@ -23913,10 +23913,10 @@
         <v>0.558753900992309</v>
       </c>
       <c r="X57" t="n">
-        <v>0.0813953488372093</v>
+        <v>0.2</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.116279069767442</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="Z57" t="s">
         <v>155</v>
@@ -24005,10 +24005,10 @@
         <v>-0.137067729637555</v>
       </c>
       <c r="X58" t="n">
-        <v>0.0523255813953488</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.0232558139534884</v>
+        <v>0.0289855072463768</v>
       </c>
       <c r="Z58" t="s">
         <v>157</v>
@@ -24097,10 +24097,10 @@
         <v>-6.76549166183996</v>
       </c>
       <c r="X59" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.00581395348837209</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="Z59" t="s">
         <v>159</v>
@@ -24189,10 +24189,10 @@
         <v>-0.645855797994842</v>
       </c>
       <c r="X60" t="n">
-        <v>0.197674418604651</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.372093023255814</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="Z60" t="s">
         <v>161</v>
@@ -24281,10 +24281,10 @@
         <v>-1.02962762537289</v>
       </c>
       <c r="X61" t="n">
-        <v>0.168604651162791</v>
+        <v>0.414285714285714</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.156976744186047</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z61" t="s">
         <v>163</v>
@@ -24373,10 +24373,10 @@
         <v>-0.575816773720665</v>
       </c>
       <c r="X62" t="n">
-        <v>0.116279069767442</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.354651162790698</v>
+        <v>0.442028985507246</v>
       </c>
       <c r="Z62" t="s">
         <v>165</v>
@@ -24465,10 +24465,10 @@
         <v>-1.10833160264969</v>
       </c>
       <c r="X63" t="n">
-        <v>0.209302325581395</v>
+        <v>0.514285714285714</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.36046511627907</v>
+        <v>0.449275362318841</v>
       </c>
       <c r="Z63" t="s">
         <v>169</v>
@@ -24557,10 +24557,10 @@
         <v>1.87904095483284</v>
       </c>
       <c r="X64" t="n">
-        <v>0.238372093023256</v>
+        <v>0.585714285714286</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.447674418604651</v>
+        <v>0.557971014492754</v>
       </c>
       <c r="Z64" t="s">
         <v>171</v>
@@ -24649,10 +24649,10 @@
         <v>0.441633235100556</v>
       </c>
       <c r="X65" t="n">
-        <v>0.25</v>
+        <v>0.614285714285714</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.63953488372093</v>
+        <v>0.797101449275362</v>
       </c>
       <c r="Z65" t="s">
         <v>173</v>
@@ -24741,10 +24741,10 @@
         <v>0.983646231737085</v>
       </c>
       <c r="X66" t="n">
-        <v>0.0523255813953488</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.063953488372093</v>
+        <v>0.0797101449275362</v>
       </c>
       <c r="Z66" t="s">
         <v>179</v>
@@ -24833,10 +24833,10 @@
         <v>3.55405123003376</v>
       </c>
       <c r="X67" t="n">
-        <v>0.0290697674418605</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.133720930232558</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z67" t="s">
         <v>181</v>
@@ -24925,10 +24925,10 @@
         <v>-1.10665573861415</v>
       </c>
       <c r="X68" t="n">
-        <v>0.116279069767442</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.13953488372093</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z68" t="s">
         <v>183</v>
@@ -25017,10 +25017,10 @@
         <v>0.692152133785137</v>
       </c>
       <c r="X69" t="n">
-        <v>0.174418604651163</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.284883720930233</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="Z69" t="s">
         <v>185</v>
@@ -25109,10 +25109,10 @@
         <v>0.2204885364083</v>
       </c>
       <c r="X70" t="n">
-        <v>0.00581395348837209</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.162790697674419</v>
+        <v>0.202898550724638</v>
       </c>
       <c r="Z70" t="s">
         <v>410</v>
@@ -25201,10 +25201,10 @@
         <v>-0.216345604971837</v>
       </c>
       <c r="X71" t="n">
-        <v>0.366279069767442</v>
+        <v>0.9</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.779069767441861</v>
+        <v>0.971014492753623</v>
       </c>
       <c r="Z71" t="s">
         <v>187</v>
@@ -25293,10 +25293,10 @@
         <v>1.37059059295208</v>
       </c>
       <c r="X72" t="n">
-        <v>0.0290697674418605</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.116279069767442</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="Z72" t="s">
         <v>412</v>
@@ -25385,10 +25385,10 @@
         <v>-0.251385378647798</v>
       </c>
       <c r="X73" t="n">
-        <v>0.0988372093023256</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.180232558139535</v>
+        <v>0.22463768115942</v>
       </c>
       <c r="Z73" t="s">
         <v>189</v>
@@ -25477,10 +25477,10 @@
         <v>0.629951263087162</v>
       </c>
       <c r="X74" t="n">
-        <v>0.215116279069767</v>
+        <v>0.528571428571429</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.482558139534884</v>
+        <v>0.601449275362319</v>
       </c>
       <c r="Z74" t="s">
         <v>191</v>
@@ -25569,10 +25569,10 @@
         <v>-2.16119351115225</v>
       </c>
       <c r="X75" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.1</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.0523255813953488</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z75" t="s">
         <v>193</v>
@@ -25661,10 +25661,10 @@
         <v>0.797134898222987</v>
       </c>
       <c r="X76" t="n">
-        <v>0.116279069767442</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.180232558139535</v>
+        <v>0.22463768115942</v>
       </c>
       <c r="Z76" t="s">
         <v>195</v>
@@ -25753,10 +25753,10 @@
         <v>0.0458249433519668</v>
       </c>
       <c r="X77" t="n">
-        <v>0.191860465116279</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.319767441860465</v>
+        <v>0.398550724637681</v>
       </c>
       <c r="Z77" t="s">
         <v>197</v>
@@ -25845,10 +25845,10 @@
         <v>6.3375427626461</v>
       </c>
       <c r="X78" t="n">
-        <v>0.0290697674418605</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.0930232558139535</v>
+        <v>0.115942028985507</v>
       </c>
       <c r="Z78" t="s">
         <v>414</v>
@@ -25937,10 +25937,10 @@
         <v>-0.582384568015608</v>
       </c>
       <c r="X79" t="n">
-        <v>0.0465116279069767</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.00581395348837209</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="Z79" t="s">
         <v>199</v>
@@ -26029,10 +26029,10 @@
         <v>-0.635203811493117</v>
       </c>
       <c r="X80" t="n">
-        <v>0.366279069767442</v>
+        <v>0.9</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.703488372093023</v>
+        <v>0.876811594202899</v>
       </c>
       <c r="Z80" t="s">
         <v>201</v>
@@ -26121,10 +26121,10 @@
         <v>3.78150606476343</v>
       </c>
       <c r="X81" t="n">
-        <v>0.0755813953488372</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.191860465116279</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z81" t="s">
         <v>203</v>
@@ -26213,10 +26213,10 @@
         <v>-0.0987207220230942</v>
       </c>
       <c r="X82" t="n">
-        <v>0.168604651162791</v>
+        <v>0.414285714285714</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.27906976744186</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Z82" t="s">
         <v>205</v>
@@ -26305,10 +26305,10 @@
         <v>-1.11965362761859</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0930232558139535</v>
+        <v>0.228571428571429</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.11046511627907</v>
+        <v>0.13768115942029</v>
       </c>
       <c r="Z83" t="s">
         <v>207</v>
@@ -26397,10 +26397,10 @@
         <v>-0.574074630008012</v>
       </c>
       <c r="X84" t="n">
-        <v>0.27906976744186</v>
+        <v>0.685714285714286</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.63953488372093</v>
+        <v>0.797101449275362</v>
       </c>
       <c r="Z84" t="s">
         <v>209</v>
@@ -26489,10 +26489,10 @@
         <v>1.30435903757979</v>
       </c>
       <c r="X85" t="n">
-        <v>0.0581395348837209</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.145348837209302</v>
+        <v>0.181159420289855</v>
       </c>
       <c r="Z85" t="s">
         <v>211</v>
@@ -26581,10 +26581,10 @@
         <v>-0.641109381204569</v>
       </c>
       <c r="X86" t="n">
-        <v>0.296511627906977</v>
+        <v>0.728571428571429</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.627906976744186</v>
+        <v>0.782608695652174</v>
       </c>
       <c r="Z86" t="s">
         <v>215</v>
@@ -26673,10 +26673,10 @@
         <v>4.42950940497296</v>
       </c>
       <c r="X87" t="n">
-        <v>0.0988372093023256</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.395348837209302</v>
+        <v>0.492753623188406</v>
       </c>
       <c r="Z87" t="s">
         <v>217</v>
@@ -26765,10 +26765,10 @@
         <v>0.793320177907799</v>
       </c>
       <c r="X88" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.1</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.168604651162791</v>
+        <v>0.210144927536232</v>
       </c>
       <c r="Z88" t="s">
         <v>219</v>
@@ -26857,10 +26857,10 @@
         <v>-0.439333395509653</v>
       </c>
       <c r="X89" t="n">
-        <v>0.180232558139535</v>
+        <v>0.442857142857143</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.296511627906977</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="Z89" t="s">
         <v>221</v>
@@ -26949,10 +26949,10 @@
         <v>1.88704576588904</v>
       </c>
       <c r="X90" t="n">
-        <v>0.11046511627907</v>
+        <v>0.271428571428571</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.424418604651163</v>
+        <v>0.528985507246377</v>
       </c>
       <c r="Z90" t="s">
         <v>223</v>
@@ -27041,10 +27041,10 @@
         <v>1.32203938341454</v>
       </c>
       <c r="X91" t="n">
-        <v>0.25</v>
+        <v>0.614285714285714</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.668604651162791</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Z91" t="s">
         <v>229</v>
@@ -27133,7 +27133,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X92" t="n">
-        <v>0.127906976744186</v>
+        <v>0.314285714285714</v>
       </c>
       <c r="Y92" t="n">
         <v>0</v>
@@ -27225,10 +27225,10 @@
         <v>2.59688292531519</v>
       </c>
       <c r="X93" t="n">
-        <v>0.0872093023255814</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.156976744186047</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z93" t="s">
         <v>233</v>
@@ -27317,10 +27317,10 @@
         <v>1.26816786635196</v>
       </c>
       <c r="X94" t="n">
-        <v>0.0581395348837209</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.186046511627907</v>
+        <v>0.231884057971014</v>
       </c>
       <c r="Z94" t="s">
         <v>235</v>
@@ -27409,10 +27409,10 @@
         <v>-1.41223745373599</v>
       </c>
       <c r="X95" t="n">
-        <v>0.0581395348837209</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.0581395348837209</v>
+        <v>0.072463768115942</v>
       </c>
       <c r="Z95" t="s">
         <v>237</v>
@@ -27501,10 +27501,10 @@
         <v>-2.46658466373383</v>
       </c>
       <c r="X96" t="n">
-        <v>0.209302325581395</v>
+        <v>0.514285714285714</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.313953488372093</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Z96" t="s">
         <v>239</v>
@@ -27593,10 +27593,10 @@
         <v>0.29146178630579</v>
       </c>
       <c r="X97" t="n">
-        <v>0.319767441860465</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.720930232558139</v>
+        <v>0.898550724637681</v>
       </c>
       <c r="Z97" t="s">
         <v>241</v>
@@ -27685,10 +27685,10 @@
         <v>0.331121487387155</v>
       </c>
       <c r="X98" t="n">
-        <v>0.284883720930233</v>
+        <v>0.7</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.540697674418605</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Z98" t="s">
         <v>243</v>
@@ -27777,10 +27777,10 @@
         <v>-0.186059612080912</v>
       </c>
       <c r="X99" t="n">
-        <v>0.255813953488372</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.424418604651163</v>
+        <v>0.528985507246377</v>
       </c>
       <c r="Z99" t="s">
         <v>245</v>
@@ -27869,10 +27869,10 @@
         <v>-0.639978268820293</v>
       </c>
       <c r="X100" t="n">
-        <v>0.0813953488372093</v>
+        <v>0.2</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.22093023255814</v>
+        <v>0.27536231884058</v>
       </c>
       <c r="Z100" t="s">
         <v>249</v>
@@ -27961,10 +27961,10 @@
         <v>-0.363367326383189</v>
       </c>
       <c r="X101" t="n">
-        <v>0.377906976744186</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.761627906976744</v>
+        <v>0.949275362318841</v>
       </c>
       <c r="Z101" t="s">
         <v>251</v>
@@ -28053,10 +28053,10 @@
         <v>0.263468756066855</v>
       </c>
       <c r="X102" t="n">
-        <v>0.27906976744186</v>
+        <v>0.685714285714286</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.534883720930233</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z102" t="s">
         <v>253</v>
@@ -28145,10 +28145,10 @@
         <v>-0.570772667698584</v>
       </c>
       <c r="X103" t="n">
-        <v>0.203488372093023</v>
+        <v>0.5</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.406976744186047</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="Z103" t="s">
         <v>255</v>
@@ -28237,10 +28237,10 @@
         <v>-0.588614477516175</v>
       </c>
       <c r="X104" t="n">
-        <v>0.238372093023256</v>
+        <v>0.585714285714286</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.47093023255814</v>
+        <v>0.58695652173913</v>
       </c>
       <c r="Z104" t="s">
         <v>257</v>
@@ -28329,10 +28329,10 @@
         <v>-1.00825486406203</v>
       </c>
       <c r="X105" t="n">
-        <v>0.191860465116279</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.348837209302326</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="Z105" t="s">
         <v>259</v>
@@ -28421,10 +28421,10 @@
         <v>-0.526161262326964</v>
       </c>
       <c r="X106" t="n">
-        <v>0.325581395348837</v>
+        <v>0.8</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.523255813953488</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="Z106" t="s">
         <v>265</v>
@@ -28513,10 +28513,10 @@
         <v>-0.761109771440151</v>
       </c>
       <c r="X107" t="n">
-        <v>0.27906976744186</v>
+        <v>0.685714285714286</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.459302325581395</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="Z107" t="s">
         <v>267</v>
@@ -28605,10 +28605,10 @@
         <v>-3.4003591990537</v>
       </c>
       <c r="X108" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.1</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.11046511627907</v>
+        <v>0.13768115942029</v>
       </c>
       <c r="Z108" t="s">
         <v>416</v>
@@ -28697,10 +28697,10 @@
         <v>-0.664765171707314</v>
       </c>
       <c r="X109" t="n">
-        <v>0.0232558139534884</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.156976744186047</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z109" t="s">
         <v>418</v>
@@ -28789,10 +28789,10 @@
         <v>2.05933684585181</v>
       </c>
       <c r="X110" t="n">
-        <v>0.0523255813953488</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.127906976744186</v>
+        <v>0.159420289855072</v>
       </c>
       <c r="Z110" t="s">
         <v>269</v>
@@ -28881,10 +28881,10 @@
         <v>-4.52313612188191</v>
       </c>
       <c r="X111" t="n">
-        <v>0.0813953488372093</v>
+        <v>0.2</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.00581395348837209</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="Z111" t="s">
         <v>271</v>
@@ -28973,10 +28973,10 @@
         <v>0.455347466113319</v>
       </c>
       <c r="X112" t="n">
-        <v>0.0232558139534884</v>
+        <v>0.0571428571428571</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.0872093023255814</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z112" t="s">
         <v>420</v>
@@ -29065,10 +29065,10 @@
         <v>2.4711190989452</v>
       </c>
       <c r="X113" t="n">
-        <v>0.0348837209302326</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.186046511627907</v>
+        <v>0.231884057971014</v>
       </c>
       <c r="Z113" t="s">
         <v>422</v>
@@ -29157,10 +29157,10 @@
         <v>-1.00983649306486</v>
       </c>
       <c r="X114" t="n">
-        <v>0.0348837209302326</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.0813953488372093</v>
+        <v>0.101449275362319</v>
       </c>
       <c r="Z114" t="s">
         <v>424</v>
@@ -29249,10 +29249,10 @@
         <v>-0.42728487819132</v>
       </c>
       <c r="X115" t="n">
-        <v>0.191860465116279</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.406976744186047</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="Z115" t="s">
         <v>273</v>
@@ -29341,10 +29341,10 @@
         <v>8.63540359888405</v>
       </c>
       <c r="X116" t="n">
-        <v>0.00581395348837209</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.0988372093023256</v>
+        <v>0.123188405797101</v>
       </c>
       <c r="Z116" t="s">
         <v>426</v>
@@ -29433,10 +29433,10 @@
         <v>3.69242889408055</v>
       </c>
       <c r="X117" t="n">
-        <v>0.0581395348837209</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.238372093023256</v>
+        <v>0.297101449275362</v>
       </c>
       <c r="Z117" t="s">
         <v>275</v>
@@ -29525,10 +29525,10 @@
         <v>2.35989719669427</v>
       </c>
       <c r="X118" t="n">
-        <v>0.0348837209302326</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.215116279069767</v>
+        <v>0.268115942028986</v>
       </c>
       <c r="Z118" t="s">
         <v>277</v>
@@ -29620,7 +29620,7 @@
         <v>0</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.13953488372093</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z119" t="s">
         <v>428</v>
@@ -29709,10 +29709,10 @@
         <v>0.747885835731521</v>
       </c>
       <c r="X120" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.1</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.186046511627907</v>
+        <v>0.231884057971014</v>
       </c>
       <c r="Z120" t="s">
         <v>279</v>
@@ -29801,10 +29801,10 @@
         <v>-0.135193199677239</v>
       </c>
       <c r="X121" t="n">
-        <v>0.180232558139535</v>
+        <v>0.442857142857143</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.354651162790698</v>
+        <v>0.442028985507246</v>
       </c>
       <c r="Z121" t="s">
         <v>281</v>
@@ -29893,10 +29893,10 @@
         <v>-2.47440699514863</v>
       </c>
       <c r="X122" t="n">
-        <v>0.232558139534884</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.0507246376811594</v>
       </c>
       <c r="Z122" t="s">
         <v>283</v>
@@ -29985,10 +29985,10 @@
         <v>-0.542724808830894</v>
       </c>
       <c r="X123" t="n">
-        <v>0.13953488372093</v>
+        <v>0.342857142857143</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.308139534883721</v>
+        <v>0.384057971014493</v>
       </c>
       <c r="Z123" t="s">
         <v>287</v>
@@ -30077,10 +30077,10 @@
         <v>2.1598381663915</v>
       </c>
       <c r="X124" t="n">
-        <v>0.0348837209302326</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.133720930232558</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z124" t="s">
         <v>430</v>
@@ -30169,10 +30169,10 @@
         <v>-0.530129342143326</v>
       </c>
       <c r="X125" t="n">
-        <v>0.162790697674419</v>
+        <v>0.4</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.290697674418605</v>
+        <v>0.36231884057971</v>
       </c>
       <c r="Z125" t="s">
         <v>289</v>
@@ -30261,10 +30261,10 @@
         <v>-0.149718986512142</v>
       </c>
       <c r="X126" t="n">
-        <v>0.162790697674419</v>
+        <v>0.4</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.430232558139535</v>
+        <v>0.536231884057971</v>
       </c>
       <c r="Z126" t="s">
         <v>291</v>
@@ -30353,10 +30353,10 @@
         <v>0.292495513014971</v>
       </c>
       <c r="X127" t="n">
-        <v>0.0755813953488372</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.244186046511628</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Z127" t="s">
         <v>293</v>
@@ -30445,10 +30445,10 @@
         <v>-0.730700672070324</v>
       </c>
       <c r="X128" t="n">
-        <v>0.191860465116279</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.284883720930233</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="Z128" t="s">
         <v>295</v>
@@ -30537,10 +30537,10 @@
         <v>-0.111398850172473</v>
       </c>
       <c r="X129" t="n">
-        <v>0.0523255813953488</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.11046511627907</v>
+        <v>0.13768115942029</v>
       </c>
       <c r="Z129" t="s">
         <v>297</v>
@@ -30629,10 +30629,10 @@
         <v>0.486239229787403</v>
       </c>
       <c r="X130" t="n">
-        <v>0.215116279069767</v>
+        <v>0.528571428571429</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.505813953488372</v>
+        <v>0.630434782608696</v>
       </c>
       <c r="Z130" t="s">
         <v>301</v>
@@ -30721,10 +30721,10 @@
         <v>0.118093956610324</v>
       </c>
       <c r="X131" t="n">
-        <v>0.168604651162791</v>
+        <v>0.414285714285714</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.313953488372093</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Z131" t="s">
         <v>303</v>
@@ -30813,10 +30813,10 @@
         <v>1.01119624104951</v>
       </c>
       <c r="X132" t="n">
-        <v>0.267441860465116</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.558139534883721</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="Z132" t="s">
         <v>307</v>
@@ -30905,10 +30905,10 @@
         <v>-0.49340351359054</v>
       </c>
       <c r="X133" t="n">
-        <v>0.0988372093023256</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.156976744186047</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z133" t="s">
         <v>309</v>
@@ -30997,10 +30997,10 @@
         <v>-0.034787941112891</v>
       </c>
       <c r="X134" t="n">
-        <v>0.0872093023255814</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="Z134" t="s">
         <v>311</v>
@@ -31089,10 +31089,10 @@
         <v>0.326191512073923</v>
       </c>
       <c r="X135" t="n">
-        <v>0.180232558139535</v>
+        <v>0.442857142857143</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.366279069767442</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="Z135" t="s">
         <v>313</v>
@@ -31181,10 +31181,10 @@
         <v>0.616230283134768</v>
       </c>
       <c r="X136" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.145348837209302</v>
+        <v>0.181159420289855</v>
       </c>
       <c r="Z136" t="s">
         <v>315</v>
@@ -31273,10 +31273,10 @@
         <v>1.98213256206157</v>
       </c>
       <c r="X137" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.1</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.0930232558139535</v>
+        <v>0.115942028985507</v>
       </c>
       <c r="Z137" t="s">
         <v>317</v>
@@ -31365,10 +31365,10 @@
         <v>2.63313810464227</v>
       </c>
       <c r="X138" t="n">
-        <v>0.0930232558139535</v>
+        <v>0.228571428571429</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.215116279069767</v>
+        <v>0.268115942028986</v>
       </c>
       <c r="Z138" t="s">
         <v>319</v>
@@ -31457,10 +31457,10 @@
         <v>-0.190228856100004</v>
       </c>
       <c r="X139" t="n">
-        <v>0.122093023255814</v>
+        <v>0.3</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.331395348837209</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Z139" t="s">
         <v>321</v>
@@ -31549,10 +31549,10 @@
         <v>0.0198190272562101</v>
       </c>
       <c r="X140" t="n">
-        <v>0.0755813953488372</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.104651162790698</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z140" t="s">
         <v>323</v>
@@ -31641,10 +31641,10 @@
         <v>0.949223634743772</v>
       </c>
       <c r="X141" t="n">
-        <v>0.0465116279069767</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.203488372093023</v>
+        <v>0.253623188405797</v>
       </c>
       <c r="Z141" t="s">
         <v>325</v>
@@ -31733,10 +31733,10 @@
         <v>-1.82197852450359</v>
       </c>
       <c r="X142" t="n">
-        <v>0.116279069767442</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.0581395348837209</v>
+        <v>0.072463768115942</v>
       </c>
       <c r="Z142" t="s">
         <v>329</v>
@@ -31825,10 +31825,10 @@
         <v>-0.76792771356333</v>
       </c>
       <c r="X143" t="n">
-        <v>0.162790697674419</v>
+        <v>0.4</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.00581395348837209</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="Z143" t="s">
         <v>331</v>
@@ -31917,7 +31917,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X144" t="n">
-        <v>0.063953488372093</v>
+        <v>0.157142857142857</v>
       </c>
       <c r="Y144" t="n">
         <v>0</v>
@@ -32009,10 +32009,10 @@
         <v>-1.11345535966272</v>
       </c>
       <c r="X145" t="n">
-        <v>0.0523255813953488</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.0755813953488372</v>
+        <v>0.0942028985507246</v>
       </c>
       <c r="Z145" t="s">
         <v>335</v>
@@ -32101,10 +32101,10 @@
         <v>-2.63905715987744</v>
       </c>
       <c r="X146" t="n">
-        <v>0.226744186046512</v>
+        <v>0.557142857142857</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.226744186046512</v>
+        <v>0.282608695652174</v>
       </c>
       <c r="Z146" t="s">
         <v>337</v>
@@ -32193,10 +32193,10 @@
         <v>-5.42760892154647</v>
       </c>
       <c r="X147" t="n">
-        <v>0.063953488372093</v>
+        <v>0.157142857142857</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.0290697674418605</v>
+        <v>0.036231884057971</v>
       </c>
       <c r="Z147" t="s">
         <v>339</v>
@@ -32285,10 +32285,10 @@
         <v>2.24339354646379</v>
       </c>
       <c r="X148" t="n">
-        <v>0.162790697674419</v>
+        <v>0.4</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.354651162790698</v>
+        <v>0.442028985507246</v>
       </c>
       <c r="Z148" t="s">
         <v>345</v>
@@ -32377,10 +32377,10 @@
         <v>-0.363708083101446</v>
       </c>
       <c r="X149" t="n">
-        <v>0.348837209302326</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.720930232558139</v>
+        <v>0.898550724637681</v>
       </c>
       <c r="Z149" t="s">
         <v>347</v>
@@ -32469,10 +32469,10 @@
         <v>0.477155210052403</v>
       </c>
       <c r="X150" t="n">
-        <v>0.168604651162791</v>
+        <v>0.414285714285714</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.447674418604651</v>
+        <v>0.557971014492754</v>
       </c>
       <c r="Z150" t="s">
         <v>349</v>
@@ -32561,10 +32561,10 @@
         <v>0.400506045399564</v>
       </c>
       <c r="X151" t="n">
-        <v>0.238372093023256</v>
+        <v>0.585714285714286</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.436046511627907</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="Z151" t="s">
         <v>351</v>
@@ -32653,10 +32653,10 @@
         <v>-0.421653968060349</v>
       </c>
       <c r="X152" t="n">
-        <v>0.133720930232558</v>
+        <v>0.328571428571429</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.377906976744186</v>
+        <v>0.471014492753623</v>
       </c>
       <c r="Z152" t="s">
         <v>353</v>
@@ -32745,10 +32745,10 @@
         <v>2.04023795502574</v>
       </c>
       <c r="X153" t="n">
-        <v>0.0872093023255814</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.261627906976744</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="Z153" t="s">
         <v>355</v>
@@ -32837,7 +32837,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X154" t="n">
-        <v>0.104651162790698</v>
+        <v>0.257142857142857</v>
       </c>
       <c r="Y154" t="n">
         <v>0</v>
@@ -32929,10 +32929,10 @@
         <v>0.847227150182376</v>
       </c>
       <c r="X155" t="n">
-        <v>0.0988372093023256</v>
+        <v>0.242857142857143</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.296511627906977</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="Z155" t="s">
         <v>359</v>
@@ -33021,10 +33021,10 @@
         <v>2.56228881625897</v>
       </c>
       <c r="X156" t="n">
-        <v>0.0174418604651163</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.273255813953488</v>
+        <v>0.340579710144928</v>
       </c>
       <c r="Z156" t="s">
         <v>432</v>
@@ -33116,7 +33116,7 @@
         <v>0</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.0813953488372093</v>
+        <v>0.101449275362319</v>
       </c>
       <c r="Z157" t="s">
         <v>434</v>
@@ -33205,10 +33205,10 @@
         <v>0.0625055096256504</v>
       </c>
       <c r="X158" t="n">
-        <v>0.0523255813953488</v>
+        <v>0.128571428571429</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.162790697674419</v>
+        <v>0.202898550724638</v>
       </c>
       <c r="Z158" t="s">
         <v>361</v>
@@ -33297,10 +33297,10 @@
         <v>0.896310039184991</v>
       </c>
       <c r="X159" t="n">
-        <v>0.38953488372093</v>
+        <v>0.957142857142857</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.790697674418605</v>
+        <v>0.985507246376812</v>
       </c>
       <c r="Z159" t="s">
         <v>363</v>
@@ -33389,10 +33389,10 @@
         <v>0.213179223180355</v>
       </c>
       <c r="X160" t="n">
-        <v>0.302325581395349</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.645348837209302</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="Z160" t="s">
         <v>365</v>
@@ -33481,10 +33481,10 @@
         <v>0.512609746425767</v>
       </c>
       <c r="X161" t="n">
-        <v>0.255813953488372</v>
+        <v>0.628571428571429</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.552325581395349</v>
+        <v>0.688405797101449</v>
       </c>
       <c r="Z161" t="s">
         <v>367</v>
@@ -33573,10 +33573,10 @@
         <v>2.69253573579387</v>
       </c>
       <c r="X162" t="n">
-        <v>0.0348837209302326</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.133720930232558</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z162" t="s">
         <v>373</v>
@@ -33665,10 +33665,10 @@
         <v>-0.651940075506831</v>
       </c>
       <c r="X163" t="n">
-        <v>0.0465116279069767</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.191860465116279</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z163" t="s">
         <v>375</v>
@@ -33757,10 +33757,10 @@
         <v>0.125980884229311</v>
       </c>
       <c r="X164" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.171428571428571</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.215116279069767</v>
+        <v>0.268115942028986</v>
       </c>
       <c r="Z164" t="s">
         <v>377</v>
@@ -33849,10 +33849,10 @@
         <v>-1.67085793458665</v>
       </c>
       <c r="X165" t="n">
-        <v>0.0465116279069767</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.0872093023255814</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z165" t="s">
         <v>379</v>
@@ -33941,10 +33941,10 @@
         <v>1.17001529024012</v>
       </c>
       <c r="X166" t="n">
-        <v>0.197674418604651</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.38953488372093</v>
+        <v>0.485507246376812</v>
       </c>
       <c r="Z166" t="s">
         <v>381</v>
@@ -34033,10 +34033,10 @@
         <v>2.66792672817736</v>
       </c>
       <c r="X167" t="n">
-        <v>0.0174418604651163</v>
+        <v>0.0428571428571429</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.11046511627907</v>
+        <v>0.13768115942029</v>
       </c>
       <c r="Z167" t="s">
         <v>383</v>
@@ -34125,10 +34125,10 @@
         <v>-0.158041908199787</v>
       </c>
       <c r="X168" t="n">
-        <v>0.267441860465116</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.476744186046512</v>
+        <v>0.594202898550725</v>
       </c>
       <c r="Z168" t="s">
         <v>385</v>
@@ -34217,10 +34217,10 @@
         <v>-0.68976042319129</v>
       </c>
       <c r="X169" t="n">
-        <v>0.244186046511628</v>
+        <v>0.6</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.447674418604651</v>
+        <v>0.557971014492754</v>
       </c>
       <c r="Z169" t="s">
         <v>387</v>
@@ -34309,10 +34309,10 @@
         <v>-1.28145018461096</v>
       </c>
       <c r="X170" t="n">
-        <v>0.186046511627907</v>
+        <v>0.457142857142857</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.319767441860465</v>
+        <v>0.398550724637681</v>
       </c>
       <c r="Z170" t="s">
         <v>389</v>
@@ -34401,10 +34401,10 @@
         <v>-6.06997852097103</v>
       </c>
       <c r="X171" t="n">
-        <v>0.104651162790698</v>
+        <v>0.257142857142857</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.00581395348837209</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="Z171" t="s">
         <v>395</v>
@@ -34493,10 +34493,10 @@
         <v>0.182735161953079</v>
       </c>
       <c r="X172" t="n">
-        <v>0.331395348837209</v>
+        <v>0.814285714285714</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.703488372093023</v>
+        <v>0.876811594202899</v>
       </c>
       <c r="Z172" t="s">
         <v>397</v>
@@ -34585,10 +34585,10 @@
         <v>2.55925424510868</v>
       </c>
       <c r="X173" t="n">
-        <v>0.0406976744186047</v>
+        <v>0.1</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.0872093023255814</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z173" t="s">
         <v>436</v>
@@ -34783,10 +34783,10 @@
         <v>3.03532965029035</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0944444444444444</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.45</v>
+        <v>0.58695652173913</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -34875,10 +34875,10 @@
         <v>-2.64806091788355</v>
       </c>
       <c r="X3" t="n">
-        <v>0.111111111111111</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0888888888888889</v>
+        <v>0.115942028985507</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -34967,10 +34967,10 @@
         <v>0.397686024273473</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0944444444444444</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.188888888888889</v>
+        <v>0.246376811594203</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -35059,10 +35059,10 @@
         <v>0.631371950759054</v>
       </c>
       <c r="X5" t="n">
-        <v>0.294444444444444</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.394444444444444</v>
+        <v>0.514492753623188</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -35151,10 +35151,10 @@
         <v>0.245368852384848</v>
       </c>
       <c r="X6" t="n">
-        <v>0.238888888888889</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.383333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -35243,10 +35243,10 @@
         <v>3.31662842775164</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0611111111111111</v>
+        <v>0.150684931506849</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.116666666666667</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -35335,10 +35335,10 @@
         <v>-0.0371854949309181</v>
       </c>
       <c r="X8" t="n">
-        <v>0.394444444444444</v>
+        <v>0.972602739726027</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.627777777777778</v>
+        <v>0.818840579710145</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -35427,10 +35427,10 @@
         <v>0.686490183658097</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0777777777777778</v>
+        <v>0.191780821917808</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z9" t="s">
         <v>45</v>
@@ -35519,10 +35519,10 @@
         <v>-1.5345677582795</v>
       </c>
       <c r="X10" t="n">
-        <v>0.127777777777778</v>
+        <v>0.315068493150685</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.133333333333333</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -35611,10 +35611,10 @@
         <v>0.425807136839655</v>
       </c>
       <c r="X11" t="n">
-        <v>0.216666666666667</v>
+        <v>0.534246575342466</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.361111111111111</v>
+        <v>0.471014492753623</v>
       </c>
       <c r="Z11" t="s">
         <v>49</v>
@@ -35703,10 +35703,10 @@
         <v>1.76255929407412</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.177777777777778</v>
+        <v>0.231884057971014</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
@@ -35795,10 +35795,10 @@
         <v>0.424349139144184</v>
       </c>
       <c r="X13" t="n">
-        <v>0.272222222222222</v>
+        <v>0.671232876712329</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.427777777777778</v>
+        <v>0.557971014492754</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
@@ -35887,10 +35887,10 @@
         <v>1.02430555199404</v>
       </c>
       <c r="X14" t="n">
-        <v>0.188888888888889</v>
+        <v>0.465753424657534</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.522222222222222</v>
+        <v>0.681159420289855</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -35979,10 +35979,10 @@
         <v>-0.243491977838883</v>
       </c>
       <c r="X15" t="n">
-        <v>0.4</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -36071,10 +36071,10 @@
         <v>3.75801335244835</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0388888888888889</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0944444444444444</v>
+        <v>0.123188405797101</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -36163,10 +36163,10 @@
         <v>1.33050856843025</v>
       </c>
       <c r="X17" t="n">
-        <v>0.105555555555556</v>
+        <v>0.26027397260274</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.172222222222222</v>
+        <v>0.22463768115942</v>
       </c>
       <c r="Z17" t="s">
         <v>61</v>
@@ -36255,10 +36255,10 @@
         <v>-0.506733697055794</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.172222222222222</v>
+        <v>0.22463768115942</v>
       </c>
       <c r="Z18" t="s">
         <v>63</v>
@@ -36347,10 +36347,10 @@
         <v>0.960446208364197</v>
       </c>
       <c r="X19" t="n">
-        <v>0.2</v>
+        <v>0.493150684931507</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.522222222222222</v>
+        <v>0.681159420289855</v>
       </c>
       <c r="Z19" t="s">
         <v>65</v>
@@ -36439,10 +36439,10 @@
         <v>-0.384665717794076</v>
       </c>
       <c r="X20" t="n">
-        <v>0.244444444444444</v>
+        <v>0.602739726027397</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.233333333333333</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Z20" t="s">
         <v>67</v>
@@ -36531,10 +36531,10 @@
         <v>0.00406840395541351</v>
       </c>
       <c r="X21" t="n">
-        <v>0.344444444444444</v>
+        <v>0.849315068493151</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.505555555555556</v>
+        <v>0.659420289855073</v>
       </c>
       <c r="Z21" t="s">
         <v>71</v>
@@ -36623,10 +36623,10 @@
         <v>7.39026809843666</v>
       </c>
       <c r="X22" t="n">
-        <v>0.00555555555555556</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.155555555555556</v>
+        <v>0.202898550724638</v>
       </c>
       <c r="Z22" t="s">
         <v>408</v>
@@ -36715,10 +36715,10 @@
         <v>0.598890020963592</v>
       </c>
       <c r="X23" t="n">
-        <v>0.211111111111111</v>
+        <v>0.520547945205479</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.261111111111111</v>
+        <v>0.340579710144928</v>
       </c>
       <c r="Z23" t="s">
         <v>73</v>
@@ -36807,10 +36807,10 @@
         <v>-0.690192964325537</v>
       </c>
       <c r="X24" t="n">
-        <v>0.4</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.583333333333333</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="Z24" t="s">
         <v>75</v>
@@ -36899,10 +36899,10 @@
         <v>2.6434803242789</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0222222222222222</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.133333333333333</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z25" t="s">
         <v>77</v>
@@ -36991,10 +36991,10 @@
         <v>-2.26632175946206</v>
       </c>
       <c r="X26" t="n">
-        <v>0.05</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0388888888888889</v>
+        <v>0.0507246376811594</v>
       </c>
       <c r="Z26" t="s">
         <v>79</v>
@@ -37083,10 +37083,10 @@
         <v>1.0087696369353</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.105555555555556</v>
+        <v>0.13768115942029</v>
       </c>
       <c r="Z27" t="s">
         <v>81</v>
@@ -37175,10 +37175,10 @@
         <v>-4.39917196789333</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0388888888888889</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.00555555555555556</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="Z28" t="s">
         <v>83</v>
@@ -37267,10 +37267,10 @@
         <v>-0.401076884250131</v>
       </c>
       <c r="X29" t="n">
-        <v>0.377777777777778</v>
+        <v>0.931506849315068</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.688888888888889</v>
+        <v>0.898550724637681</v>
       </c>
       <c r="Z29" t="s">
         <v>85</v>
@@ -37359,10 +37359,10 @@
         <v>-1.69129559434197</v>
       </c>
       <c r="X30" t="n">
-        <v>0.15</v>
+        <v>0.36986301369863</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.166666666666667</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="Z30" t="s">
         <v>87</v>
@@ -37451,10 +37451,10 @@
         <v>-4.71174497197524</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0444444444444444</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.00555555555555556</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="Z31" t="s">
         <v>89</v>
@@ -37543,10 +37543,10 @@
         <v>1.14505665708709</v>
       </c>
       <c r="X32" t="n">
-        <v>0.1</v>
+        <v>0.246575342465753</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2</v>
+        <v>0.260869565217391</v>
       </c>
       <c r="Z32" t="s">
         <v>93</v>
@@ -37635,10 +37635,10 @@
         <v>-0.128352259649463</v>
       </c>
       <c r="X33" t="n">
-        <v>0.405555555555556</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.733333333333333</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Z33" t="s">
         <v>95</v>
@@ -37727,10 +37727,10 @@
         <v>-0.764064572601044</v>
       </c>
       <c r="X34" t="n">
-        <v>0.322222222222222</v>
+        <v>0.794520547945205</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.377777777777778</v>
+        <v>0.492753623188406</v>
       </c>
       <c r="Z34" t="s">
         <v>97</v>
@@ -37819,10 +37819,10 @@
         <v>1.23915513196531</v>
       </c>
       <c r="X35" t="n">
-        <v>0.327777777777778</v>
+        <v>0.808219178082192</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.666666666666667</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="Z35" t="s">
         <v>99</v>
@@ -37911,10 +37911,10 @@
         <v>0.108722422753016</v>
       </c>
       <c r="X36" t="n">
-        <v>0.355555555555556</v>
+        <v>0.876712328767123</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.4</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="Z36" t="s">
         <v>101</v>
@@ -38003,10 +38003,10 @@
         <v>0.360854158823471</v>
       </c>
       <c r="X37" t="n">
-        <v>0.405555555555556</v>
+        <v>1</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.733333333333333</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="Z37" t="s">
         <v>103</v>
@@ -38095,10 +38095,10 @@
         <v>-0.312139703741184</v>
       </c>
       <c r="X38" t="n">
-        <v>0.383333333333333</v>
+        <v>0.945205479452055</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.666666666666667</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="Z38" t="s">
         <v>107</v>
@@ -38187,10 +38187,10 @@
         <v>-0.375050451536401</v>
       </c>
       <c r="X39" t="n">
-        <v>0.294444444444444</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.266666666666667</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Z39" t="s">
         <v>109</v>
@@ -38279,10 +38279,10 @@
         <v>0.0130121191742845</v>
       </c>
       <c r="X40" t="n">
-        <v>0.116666666666667</v>
+        <v>0.287671232876712</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0388888888888889</v>
+        <v>0.0507246376811594</v>
       </c>
       <c r="Z40" t="s">
         <v>111</v>
@@ -38371,10 +38371,10 @@
         <v>-0.711140774228536</v>
       </c>
       <c r="X41" t="n">
-        <v>0.294444444444444</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.294444444444444</v>
+        <v>0.384057971014493</v>
       </c>
       <c r="Z41" t="s">
         <v>113</v>
@@ -38463,10 +38463,10 @@
         <v>5.15816553566066</v>
       </c>
       <c r="X42" t="n">
-        <v>0.00555555555555556</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.183333333333333</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z42" t="s">
         <v>115</v>
@@ -38555,10 +38555,10 @@
         <v>-1.25861452938109</v>
       </c>
       <c r="X43" t="n">
-        <v>0.122222222222222</v>
+        <v>0.301369863013699</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.133333333333333</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z43" t="s">
         <v>117</v>
@@ -38647,10 +38647,10 @@
         <v>-1.36161304225094</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.072463768115942</v>
       </c>
       <c r="Z44" t="s">
         <v>119</v>
@@ -38739,10 +38739,10 @@
         <v>-1.65290201990528</v>
       </c>
       <c r="X45" t="n">
-        <v>0.344444444444444</v>
+        <v>0.849315068493151</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.316666666666667</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Z45" t="s">
         <v>121</v>
@@ -38831,10 +38831,10 @@
         <v>-1.63083222186106</v>
       </c>
       <c r="X46" t="n">
-        <v>0.277777777777778</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.188888888888889</v>
+        <v>0.246376811594203</v>
       </c>
       <c r="Z46" t="s">
         <v>123</v>
@@ -38923,10 +38923,10 @@
         <v>-0.636830315969041</v>
       </c>
       <c r="X47" t="n">
-        <v>0.183333333333333</v>
+        <v>0.452054794520548</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0888888888888889</v>
+        <v>0.115942028985507</v>
       </c>
       <c r="Z47" t="s">
         <v>125</v>
@@ -39015,10 +39015,10 @@
         <v>-0.158825221545833</v>
       </c>
       <c r="X48" t="n">
-        <v>0.177777777777778</v>
+        <v>0.438356164383562</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.483333333333333</v>
+        <v>0.630434782608696</v>
       </c>
       <c r="Z48" t="s">
         <v>127</v>
@@ -39107,10 +39107,10 @@
         <v>-1.68825078336683</v>
       </c>
       <c r="X49" t="n">
-        <v>0.361111111111111</v>
+        <v>0.89041095890411</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.466666666666667</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="Z49" t="s">
         <v>131</v>
@@ -39199,10 +39199,10 @@
         <v>0.418651875383628</v>
       </c>
       <c r="X50" t="n">
-        <v>0.366666666666667</v>
+        <v>0.904109589041096</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.555555555555556</v>
+        <v>0.72463768115942</v>
       </c>
       <c r="Z50" t="s">
         <v>133</v>
@@ -39291,10 +39291,10 @@
         <v>0.293543690916395</v>
       </c>
       <c r="X51" t="n">
-        <v>0.244444444444444</v>
+        <v>0.602739726027397</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.311111111111111</v>
+        <v>0.405797101449275</v>
       </c>
       <c r="Z51" t="s">
         <v>137</v>
@@ -39383,10 +39383,10 @@
         <v>-0.916271428159317</v>
       </c>
       <c r="X52" t="n">
-        <v>0.388888888888889</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.6</v>
+        <v>0.782608695652174</v>
       </c>
       <c r="Z52" t="s">
         <v>139</v>
@@ -39475,10 +39475,10 @@
         <v>-0.58969324785158</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0444444444444444</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.155555555555556</v>
+        <v>0.202898550724638</v>
       </c>
       <c r="Z53" t="s">
         <v>141</v>
@@ -39567,10 +39567,10 @@
         <v>-3.22751007875495</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0166666666666667</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="Z54" t="s">
         <v>145</v>
@@ -39659,10 +39659,10 @@
         <v>0.530974193227754</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0944444444444444</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.111111111111111</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="Z55" t="s">
         <v>147</v>
@@ -39751,10 +39751,10 @@
         <v>2.32725355819197</v>
       </c>
       <c r="X56" t="n">
-        <v>0.138888888888889</v>
+        <v>0.342465753424658</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.394444444444444</v>
+        <v>0.514492753623188</v>
       </c>
       <c r="Z56" t="s">
         <v>149</v>
@@ -39843,10 +39843,10 @@
         <v>-4.80450349157015</v>
       </c>
       <c r="X57" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.205479452054795</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.0388888888888889</v>
+        <v>0.0507246376811594</v>
       </c>
       <c r="Z57" t="s">
         <v>151</v>
@@ -39935,10 +39935,10 @@
         <v>0.621290081356186</v>
       </c>
       <c r="X58" t="n">
-        <v>0.4</v>
+        <v>0.986301369863014</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.7</v>
+        <v>0.91304347826087</v>
       </c>
       <c r="Z58" t="s">
         <v>153</v>
@@ -40027,10 +40027,10 @@
         <v>0.100834913817912</v>
       </c>
       <c r="X59" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.111111111111111</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="Z59" t="s">
         <v>155</v>
@@ -40119,10 +40119,10 @@
         <v>0.589409079637616</v>
       </c>
       <c r="X60" t="n">
-        <v>0.205555555555556</v>
+        <v>0.506849315068493</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.355555555555556</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="Z60" t="s">
         <v>161</v>
@@ -40211,10 +40211,10 @@
         <v>1.28856813034528</v>
       </c>
       <c r="X61" t="n">
-        <v>0.127777777777778</v>
+        <v>0.315068493150685</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.15</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z61" t="s">
         <v>163</v>
@@ -40303,10 +40303,10 @@
         <v>6.57915503507324</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0111111111111111</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.338888888888889</v>
+        <v>0.442028985507246</v>
       </c>
       <c r="Z62" t="s">
         <v>165</v>
@@ -40395,10 +40395,10 @@
         <v>-1.91297492079449</v>
       </c>
       <c r="X63" t="n">
-        <v>0.122222222222222</v>
+        <v>0.301369863013699</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.0944444444444444</v>
+        <v>0.123188405797101</v>
       </c>
       <c r="Z63" t="s">
         <v>167</v>
@@ -40487,10 +40487,10 @@
         <v>-0.188173025568636</v>
       </c>
       <c r="X64" t="n">
-        <v>0.211111111111111</v>
+        <v>0.520547945205479</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.344444444444444</v>
+        <v>0.449275362318841</v>
       </c>
       <c r="Z64" t="s">
         <v>169</v>
@@ -40579,10 +40579,10 @@
         <v>-0.508629890340836</v>
       </c>
       <c r="X65" t="n">
-        <v>0.361111111111111</v>
+        <v>0.89041095890411</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.427777777777778</v>
+        <v>0.557971014492754</v>
       </c>
       <c r="Z65" t="s">
         <v>171</v>
@@ -40671,10 +40671,10 @@
         <v>1.63490747227861</v>
       </c>
       <c r="X66" t="n">
-        <v>0.205555555555556</v>
+        <v>0.506849315068493</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.611111111111111</v>
+        <v>0.797101449275362</v>
       </c>
       <c r="Z66" t="s">
         <v>173</v>
@@ -40763,10 +40763,10 @@
         <v>-1.69321925636141</v>
       </c>
       <c r="X67" t="n">
-        <v>0.0888888888888889</v>
+        <v>0.219178082191781</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.0388888888888889</v>
+        <v>0.0507246376811594</v>
       </c>
       <c r="Z67" t="s">
         <v>175</v>
@@ -40855,10 +40855,10 @@
         <v>-1.90988202430114</v>
       </c>
       <c r="X68" t="n">
-        <v>0.133333333333333</v>
+        <v>0.328767123287671</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.0611111111111111</v>
+        <v>0.0797101449275362</v>
       </c>
       <c r="Z68" t="s">
         <v>177</v>
@@ -40947,10 +40947,10 @@
         <v>-2.07579383533931</v>
       </c>
       <c r="X69" t="n">
-        <v>0.138888888888889</v>
+        <v>0.342465753424658</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0611111111111111</v>
+        <v>0.0797101449275362</v>
       </c>
       <c r="Z69" t="s">
         <v>179</v>
@@ -41039,10 +41039,10 @@
         <v>1.17972839404387</v>
       </c>
       <c r="X70" t="n">
-        <v>0.116666666666667</v>
+        <v>0.287671232876712</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.127777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z70" t="s">
         <v>181</v>
@@ -41131,10 +41131,10 @@
         <v>-1.18977930214253</v>
       </c>
       <c r="X71" t="n">
-        <v>0.155555555555556</v>
+        <v>0.383561643835616</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.133333333333333</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z71" t="s">
         <v>183</v>
@@ -41223,10 +41223,10 @@
         <v>3.84967434830258</v>
       </c>
       <c r="X72" t="n">
-        <v>0.0222222222222222</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.272222222222222</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="Z72" t="s">
         <v>185</v>
@@ -41315,10 +41315,10 @@
         <v>1.62634905422691</v>
       </c>
       <c r="X73" t="n">
-        <v>0.0333333333333333</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.155555555555556</v>
+        <v>0.202898550724638</v>
       </c>
       <c r="Z73" t="s">
         <v>410</v>
@@ -41407,10 +41407,10 @@
         <v>-0.984811879304837</v>
       </c>
       <c r="X74" t="n">
-        <v>0.405555555555556</v>
+        <v>1</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.744444444444444</v>
+        <v>0.971014492753623</v>
       </c>
       <c r="Z74" t="s">
         <v>187</v>
@@ -41502,7 +41502,7 @@
         <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.111111111111111</v>
+        <v>0.144927536231884</v>
       </c>
       <c r="Z75" t="s">
         <v>412</v>
@@ -41591,10 +41591,10 @@
         <v>-0.717533698065715</v>
       </c>
       <c r="X76" t="n">
-        <v>0.233333333333333</v>
+        <v>0.575342465753425</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.172222222222222</v>
+        <v>0.22463768115942</v>
       </c>
       <c r="Z76" t="s">
         <v>189</v>
@@ -41683,10 +41683,10 @@
         <v>-0.560040145804386</v>
       </c>
       <c r="X77" t="n">
-        <v>0.338888888888889</v>
+        <v>0.835616438356164</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.461111111111111</v>
+        <v>0.601449275362319</v>
       </c>
       <c r="Z77" t="s">
         <v>191</v>
@@ -41775,10 +41775,10 @@
         <v>-3.4043808253222</v>
       </c>
       <c r="X78" t="n">
-        <v>0.111111111111111</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.05</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z78" t="s">
         <v>193</v>
@@ -41867,10 +41867,10 @@
         <v>0.554892869945491</v>
       </c>
       <c r="X79" t="n">
-        <v>0.133333333333333</v>
+        <v>0.328767123287671</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.172222222222222</v>
+        <v>0.22463768115942</v>
       </c>
       <c r="Z79" t="s">
         <v>195</v>
@@ -41959,10 +41959,10 @@
         <v>-1.29162106065501</v>
       </c>
       <c r="X80" t="n">
-        <v>0.35</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.305555555555556</v>
+        <v>0.398550724637681</v>
       </c>
       <c r="Z80" t="s">
         <v>197</v>
@@ -42054,7 +42054,7 @@
         <v>0</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.0888888888888889</v>
+        <v>0.115942028985507</v>
       </c>
       <c r="Z81" t="s">
         <v>414</v>
@@ -42143,10 +42143,10 @@
         <v>-0.979594613365597</v>
       </c>
       <c r="X82" t="n">
-        <v>0.394444444444444</v>
+        <v>0.972602739726027</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.672222222222222</v>
+        <v>0.876811594202899</v>
       </c>
       <c r="Z82" t="s">
         <v>201</v>
@@ -42235,10 +42235,10 @@
         <v>5.73859037010534</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.183333333333333</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z83" t="s">
         <v>203</v>
@@ -42327,10 +42327,10 @@
         <v>-0.79962006480691</v>
       </c>
       <c r="X84" t="n">
-        <v>0.294444444444444</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.266666666666667</v>
+        <v>0.347826086956522</v>
       </c>
       <c r="Z84" t="s">
         <v>205</v>
@@ -42419,10 +42419,10 @@
         <v>-2.17245127006832</v>
       </c>
       <c r="X85" t="n">
-        <v>0.2</v>
+        <v>0.493150684931507</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.105555555555556</v>
+        <v>0.13768115942029</v>
       </c>
       <c r="Z85" t="s">
         <v>207</v>
@@ -42511,10 +42511,10 @@
         <v>-0.051411468587443</v>
       </c>
       <c r="X86" t="n">
-        <v>0.355555555555556</v>
+        <v>0.876712328767123</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.611111111111111</v>
+        <v>0.797101449275362</v>
       </c>
       <c r="Z86" t="s">
         <v>209</v>
@@ -42603,10 +42603,10 @@
         <v>2.31971385034244</v>
       </c>
       <c r="X87" t="n">
-        <v>0.116666666666667</v>
+        <v>0.287671232876712</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.138888888888889</v>
+        <v>0.181159420289855</v>
       </c>
       <c r="Z87" t="s">
         <v>211</v>
@@ -42695,10 +42695,10 @@
         <v>-3.72162556864399</v>
       </c>
       <c r="X88" t="n">
-        <v>0.05</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.05</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z88" t="s">
         <v>213</v>
@@ -42787,10 +42787,10 @@
         <v>-0.573187834049295</v>
       </c>
       <c r="X89" t="n">
-        <v>0.388888888888889</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.6</v>
+        <v>0.782608695652174</v>
       </c>
       <c r="Z89" t="s">
         <v>215</v>
@@ -42879,10 +42879,10 @@
         <v>-0.335127416861514</v>
       </c>
       <c r="X90" t="n">
-        <v>0.116666666666667</v>
+        <v>0.287671232876712</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.377777777777778</v>
+        <v>0.492753623188406</v>
       </c>
       <c r="Z90" t="s">
         <v>217</v>
@@ -42971,10 +42971,10 @@
         <v>-1.13215231186951</v>
       </c>
       <c r="X91" t="n">
-        <v>0.216666666666667</v>
+        <v>0.534246575342466</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.161111111111111</v>
+        <v>0.210144927536232</v>
       </c>
       <c r="Z91" t="s">
         <v>219</v>
@@ -43063,10 +43063,10 @@
         <v>-0.345259692926478</v>
       </c>
       <c r="X92" t="n">
-        <v>0.338888888888889</v>
+        <v>0.835616438356164</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.283333333333333</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="Z92" t="s">
         <v>221</v>
@@ -43155,10 +43155,10 @@
         <v>1.64118712308191</v>
       </c>
       <c r="X93" t="n">
-        <v>0.172222222222222</v>
+        <v>0.424657534246575</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.405555555555556</v>
+        <v>0.528985507246377</v>
       </c>
       <c r="Z93" t="s">
         <v>223</v>
@@ -43247,10 +43247,10 @@
         <v>-1.3873238474217</v>
       </c>
       <c r="X94" t="n">
-        <v>0.0944444444444444</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.127777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z94" t="s">
         <v>225</v>
@@ -43339,10 +43339,10 @@
         <v>-0.770401393764029</v>
       </c>
       <c r="X95" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.116666666666667</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="Z95" t="s">
         <v>227</v>
@@ -43431,10 +43431,10 @@
         <v>2.39052853803535</v>
       </c>
       <c r="X96" t="n">
-        <v>0.222222222222222</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.638888888888889</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Z96" t="s">
         <v>229</v>
@@ -43523,10 +43523,10 @@
         <v>1.1308827849757</v>
       </c>
       <c r="X97" t="n">
-        <v>0.122222222222222</v>
+        <v>0.301369863013699</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.15</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z97" t="s">
         <v>233</v>
@@ -43615,10 +43615,10 @@
         <v>-1.66951404921135</v>
       </c>
       <c r="X98" t="n">
-        <v>0.2</v>
+        <v>0.493150684931507</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.177777777777778</v>
+        <v>0.231884057971014</v>
       </c>
       <c r="Z98" t="s">
         <v>235</v>
@@ -43707,10 +43707,10 @@
         <v>-0.93175135778659</v>
       </c>
       <c r="X99" t="n">
-        <v>0.0611111111111111</v>
+        <v>0.150684931506849</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.0555555555555556</v>
+        <v>0.072463768115942</v>
       </c>
       <c r="Z99" t="s">
         <v>237</v>
@@ -43799,10 +43799,10 @@
         <v>4.53248053790094</v>
       </c>
       <c r="X100" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.205479452054795</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.3</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Z100" t="s">
         <v>239</v>
@@ -43891,10 +43891,10 @@
         <v>-0.189174791870174</v>
       </c>
       <c r="X101" t="n">
-        <v>0.377777777777778</v>
+        <v>0.931506849315068</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.688888888888889</v>
+        <v>0.898550724637681</v>
       </c>
       <c r="Z101" t="s">
         <v>241</v>
@@ -43983,10 +43983,10 @@
         <v>1.47759070860706</v>
       </c>
       <c r="X102" t="n">
-        <v>0.255555555555556</v>
+        <v>0.63013698630137</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.516666666666667</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="Z102" t="s">
         <v>243</v>
@@ -44075,10 +44075,10 @@
         <v>-1.45197727917036</v>
       </c>
       <c r="X103" t="n">
-        <v>0.361111111111111</v>
+        <v>0.89041095890411</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.405555555555556</v>
+        <v>0.528985507246377</v>
       </c>
       <c r="Z103" t="s">
         <v>245</v>
@@ -44167,10 +44167,10 @@
         <v>-3.49894473945422</v>
       </c>
       <c r="X104" t="n">
-        <v>0.0444444444444444</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.036231884057971</v>
       </c>
       <c r="Z104" t="s">
         <v>247</v>
@@ -44259,10 +44259,10 @@
         <v>-0.379735671279809</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0222222222222222</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.211111111111111</v>
+        <v>0.27536231884058</v>
       </c>
       <c r="Z105" t="s">
         <v>249</v>
@@ -44351,10 +44351,10 @@
         <v>-1.07545959724565</v>
       </c>
       <c r="X106" t="n">
-        <v>0.405555555555556</v>
+        <v>1</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.727777777777778</v>
+        <v>0.949275362318841</v>
       </c>
       <c r="Z106" t="s">
         <v>251</v>
@@ -44443,10 +44443,10 @@
         <v>0.853168004328444</v>
       </c>
       <c r="X107" t="n">
-        <v>0.272222222222222</v>
+        <v>0.671232876712329</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.511111111111111</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z107" t="s">
         <v>253</v>
@@ -44535,10 +44535,10 @@
         <v>-0.328455821927018</v>
       </c>
       <c r="X108" t="n">
-        <v>0.327777777777778</v>
+        <v>0.808219178082192</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.388888888888889</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="Z108" t="s">
         <v>255</v>
@@ -44627,10 +44627,10 @@
         <v>-0.782662804800905</v>
       </c>
       <c r="X109" t="n">
-        <v>0.327777777777778</v>
+        <v>0.808219178082192</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.45</v>
+        <v>0.58695652173913</v>
       </c>
       <c r="Z109" t="s">
         <v>257</v>
@@ -44719,10 +44719,10 @@
         <v>-0.828209037000108</v>
       </c>
       <c r="X110" t="n">
-        <v>0.333333333333333</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.333333333333333</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="Z110" t="s">
         <v>259</v>
@@ -44811,10 +44811,10 @@
         <v>0.609697136177502</v>
       </c>
       <c r="X111" t="n">
-        <v>0.0444444444444444</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.0611111111111111</v>
+        <v>0.0797101449275362</v>
       </c>
       <c r="Z111" t="s">
         <v>261</v>
@@ -44903,10 +44903,10 @@
         <v>-0.208457136580713</v>
       </c>
       <c r="X112" t="n">
-        <v>0.0444444444444444</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.0777777777777778</v>
+        <v>0.101449275362319</v>
       </c>
       <c r="Z112" t="s">
         <v>263</v>
@@ -44995,10 +44995,10 @@
         <v>0.0326109233525385</v>
       </c>
       <c r="X113" t="n">
-        <v>0.394444444444444</v>
+        <v>0.972602739726027</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.5</v>
+        <v>0.652173913043478</v>
       </c>
       <c r="Z113" t="s">
         <v>265</v>
@@ -45087,10 +45087,10 @@
         <v>-1.49025125663735</v>
       </c>
       <c r="X114" t="n">
-        <v>0.361111111111111</v>
+        <v>0.89041095890411</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.438888888888889</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="Z114" t="s">
         <v>267</v>
@@ -45182,7 +45182,7 @@
         <v>0</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.105555555555556</v>
+        <v>0.13768115942029</v>
       </c>
       <c r="Z115" t="s">
         <v>416</v>
@@ -45271,10 +45271,10 @@
         <v>5.79654737921487</v>
       </c>
       <c r="X116" t="n">
-        <v>0.0111111111111111</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.15</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z116" t="s">
         <v>418</v>
@@ -45363,10 +45363,10 @@
         <v>0.666218587498031</v>
       </c>
       <c r="X117" t="n">
-        <v>0.05</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.122222222222222</v>
+        <v>0.159420289855072</v>
       </c>
       <c r="Z117" t="s">
         <v>269</v>
@@ -45455,10 +45455,10 @@
         <v>0.790944499421651</v>
       </c>
       <c r="X118" t="n">
-        <v>0.0333333333333333</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z118" t="s">
         <v>420</v>
@@ -45547,10 +45547,10 @@
         <v>4.62766683146077</v>
       </c>
       <c r="X119" t="n">
-        <v>0.0111111111111111</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.177777777777778</v>
+        <v>0.231884057971014</v>
       </c>
       <c r="Z119" t="s">
         <v>422</v>
@@ -45639,10 +45639,10 @@
         <v>3.04373064328757</v>
       </c>
       <c r="X120" t="n">
-        <v>0.00555555555555556</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.0777777777777778</v>
+        <v>0.101449275362319</v>
       </c>
       <c r="Z120" t="s">
         <v>424</v>
@@ -45731,10 +45731,10 @@
         <v>-1.04958069248715</v>
       </c>
       <c r="X121" t="n">
-        <v>0.316666666666667</v>
+        <v>0.780821917808219</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.388888888888889</v>
+        <v>0.507246376811594</v>
       </c>
       <c r="Z121" t="s">
         <v>273</v>
@@ -45823,10 +45823,10 @@
         <v>1.77331923039958</v>
       </c>
       <c r="X122" t="n">
-        <v>0.0222222222222222</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.0944444444444444</v>
+        <v>0.123188405797101</v>
       </c>
       <c r="Z122" t="s">
         <v>426</v>
@@ -45915,10 +45915,10 @@
         <v>2.7670712757168</v>
       </c>
       <c r="X123" t="n">
-        <v>0.0611111111111111</v>
+        <v>0.150684931506849</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.227777777777778</v>
+        <v>0.297101449275362</v>
       </c>
       <c r="Z123" t="s">
         <v>275</v>
@@ -46007,10 +46007,10 @@
         <v>0.312674801620322</v>
       </c>
       <c r="X124" t="n">
-        <v>0.127777777777778</v>
+        <v>0.315068493150685</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.205555555555556</v>
+        <v>0.268115942028986</v>
       </c>
       <c r="Z124" t="s">
         <v>277</v>
@@ -46099,10 +46099,10 @@
         <v>2.40366243753027</v>
       </c>
       <c r="X125" t="n">
-        <v>0.0111111111111111</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.133333333333333</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="Z125" t="s">
         <v>428</v>
@@ -46191,10 +46191,10 @@
         <v>0.332682141730147</v>
       </c>
       <c r="X126" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.177777777777778</v>
+        <v>0.231884057971014</v>
       </c>
       <c r="Z126" t="s">
         <v>279</v>
@@ -46283,10 +46283,10 @@
         <v>0.66182736928081</v>
       </c>
       <c r="X127" t="n">
-        <v>0.222222222222222</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.338888888888889</v>
+        <v>0.442028985507246</v>
       </c>
       <c r="Z127" t="s">
         <v>281</v>
@@ -46375,10 +46375,10 @@
         <v>-0.725893971686226</v>
       </c>
       <c r="X128" t="n">
-        <v>0.122222222222222</v>
+        <v>0.301369863013699</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.0777777777777778</v>
+        <v>0.101449275362319</v>
       </c>
       <c r="Z128" t="s">
         <v>285</v>
@@ -46467,10 +46467,10 @@
         <v>-0.782211699500134</v>
       </c>
       <c r="X129" t="n">
-        <v>0.233333333333333</v>
+        <v>0.575342465753425</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.294444444444444</v>
+        <v>0.384057971014493</v>
       </c>
       <c r="Z129" t="s">
         <v>287</v>
@@ -46559,10 +46559,10 @@
         <v>3.72731089211315</v>
       </c>
       <c r="X130" t="n">
-        <v>0.0111111111111111</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.127777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z130" t="s">
         <v>430</v>
@@ -46651,10 +46651,10 @@
         <v>1.36572350904567</v>
       </c>
       <c r="X131" t="n">
-        <v>0.183333333333333</v>
+        <v>0.452054794520548</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.277777777777778</v>
+        <v>0.36231884057971</v>
       </c>
       <c r="Z131" t="s">
         <v>289</v>
@@ -46743,10 +46743,10 @@
         <v>1.16322055725921</v>
       </c>
       <c r="X132" t="n">
-        <v>0.177777777777778</v>
+        <v>0.438356164383562</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.411111111111111</v>
+        <v>0.536231884057971</v>
       </c>
       <c r="Z132" t="s">
         <v>291</v>
@@ -46835,10 +46835,10 @@
         <v>-0.883132471239235</v>
       </c>
       <c r="X133" t="n">
-        <v>0.277777777777778</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.233333333333333</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="Z133" t="s">
         <v>293</v>
@@ -46927,10 +46927,10 @@
         <v>-1.23152158597271</v>
       </c>
       <c r="X134" t="n">
-        <v>0.377777777777778</v>
+        <v>0.931506849315068</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.272222222222222</v>
+        <v>0.355072463768116</v>
       </c>
       <c r="Z134" t="s">
         <v>295</v>
@@ -47019,10 +47019,10 @@
         <v>2.868084212495</v>
       </c>
       <c r="X135" t="n">
-        <v>0.05</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.105555555555556</v>
+        <v>0.13768115942029</v>
       </c>
       <c r="Z135" t="s">
         <v>297</v>
@@ -47111,10 +47111,10 @@
         <v>2.11729882552748</v>
       </c>
       <c r="X136" t="n">
-        <v>0.0611111111111111</v>
+        <v>0.150684931506849</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.1</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z136" t="s">
         <v>299</v>
@@ -47203,10 +47203,10 @@
         <v>-0.915243176828592</v>
       </c>
       <c r="X137" t="n">
-        <v>0.355555555555556</v>
+        <v>0.876712328767123</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.483333333333333</v>
+        <v>0.630434782608696</v>
       </c>
       <c r="Z137" t="s">
         <v>301</v>
@@ -47295,10 +47295,10 @@
         <v>-0.297507380522957</v>
       </c>
       <c r="X138" t="n">
-        <v>0.244444444444444</v>
+        <v>0.602739726027397</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.3</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="Z138" t="s">
         <v>303</v>
@@ -47387,10 +47387,10 @@
         <v>1.09348894949823</v>
       </c>
       <c r="X139" t="n">
-        <v>0.0944444444444444</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.0388888888888889</v>
+        <v>0.0507246376811594</v>
       </c>
       <c r="Z139" t="s">
         <v>305</v>
@@ -47479,10 +47479,10 @@
         <v>-0.419758778221627</v>
       </c>
       <c r="X140" t="n">
-        <v>0.383333333333333</v>
+        <v>0.945205479452055</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.533333333333333</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="Z140" t="s">
         <v>307</v>
@@ -47571,10 +47571,10 @@
         <v>-1.37229618564242</v>
       </c>
       <c r="X141" t="n">
-        <v>0.161111111111111</v>
+        <v>0.397260273972603</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.15</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Z141" t="s">
         <v>309</v>
@@ -47663,10 +47663,10 @@
         <v>-1.26554661052137</v>
       </c>
       <c r="X142" t="n">
-        <v>0.255555555555556</v>
+        <v>0.63013698630137</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.35</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="Z142" t="s">
         <v>313</v>
@@ -47755,10 +47755,10 @@
         <v>1.13993699263129</v>
       </c>
       <c r="X143" t="n">
-        <v>0.105555555555556</v>
+        <v>0.26027397260274</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.138888888888889</v>
+        <v>0.181159420289855</v>
       </c>
       <c r="Z143" t="s">
         <v>315</v>
@@ -47847,10 +47847,10 @@
         <v>-0.105520088227302</v>
       </c>
       <c r="X144" t="n">
-        <v>0.116666666666667</v>
+        <v>0.287671232876712</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.0888888888888889</v>
+        <v>0.115942028985507</v>
       </c>
       <c r="Z144" t="s">
         <v>317</v>
@@ -47939,10 +47939,10 @@
         <v>1.94454346633133</v>
       </c>
       <c r="X145" t="n">
-        <v>0.0944444444444444</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.205555555555556</v>
+        <v>0.268115942028986</v>
       </c>
       <c r="Z145" t="s">
         <v>319</v>
@@ -48031,10 +48031,10 @@
         <v>-0.558357742953165</v>
       </c>
       <c r="X146" t="n">
-        <v>0.261111111111111</v>
+        <v>0.643835616438356</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.316666666666667</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="Z146" t="s">
         <v>321</v>
@@ -48123,10 +48123,10 @@
         <v>1.53780603465585</v>
       </c>
       <c r="X147" t="n">
-        <v>0.0444444444444444</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.1</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="Z147" t="s">
         <v>323</v>
@@ -48215,10 +48215,10 @@
         <v>1.64840297327438</v>
       </c>
       <c r="X148" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.205479452054795</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.194444444444444</v>
+        <v>0.253623188405797</v>
       </c>
       <c r="Z148" t="s">
         <v>325</v>
@@ -48307,10 +48307,10 @@
         <v>-2.03933157264212</v>
       </c>
       <c r="X149" t="n">
-        <v>0.05</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.036231884057971</v>
       </c>
       <c r="Z149" t="s">
         <v>327</v>
@@ -48399,10 +48399,10 @@
         <v>-1.95706551644969</v>
       </c>
       <c r="X150" t="n">
-        <v>0.1</v>
+        <v>0.246575342465753</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.0942028985507246</v>
       </c>
       <c r="Z150" t="s">
         <v>335</v>
@@ -48491,10 +48491,10 @@
         <v>2.86712703981576</v>
       </c>
       <c r="X151" t="n">
-        <v>0.05</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.216666666666667</v>
+        <v>0.282608695652174</v>
       </c>
       <c r="Z151" t="s">
         <v>337</v>
@@ -48583,10 +48583,10 @@
         <v>-0.288900577375976</v>
       </c>
       <c r="X152" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.205479452054795</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.0611111111111111</v>
+        <v>0.0797101449275362</v>
       </c>
       <c r="Z152" t="s">
         <v>341</v>
@@ -48675,10 +48675,10 @@
         <v>-0.494318119540753</v>
       </c>
       <c r="X153" t="n">
-        <v>0.0444444444444444</v>
+        <v>0.10958904109589</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.00555555555555556</v>
+        <v>0.0072463768115942</v>
       </c>
       <c r="Z153" t="s">
         <v>343</v>
@@ -48767,10 +48767,10 @@
         <v>0.333320646919552</v>
       </c>
       <c r="X154" t="n">
-        <v>0.2</v>
+        <v>0.493150684931507</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.338888888888889</v>
+        <v>0.442028985507246</v>
       </c>
       <c r="Z154" t="s">
         <v>345</v>
@@ -48859,10 +48859,10 @@
         <v>1.34975981220137</v>
       </c>
       <c r="X155" t="n">
-        <v>0.394444444444444</v>
+        <v>0.972602739726027</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.688888888888889</v>
+        <v>0.898550724637681</v>
       </c>
       <c r="Z155" t="s">
         <v>347</v>
@@ -48951,10 +48951,10 @@
         <v>2.19203600603647</v>
       </c>
       <c r="X156" t="n">
-        <v>0.161111111111111</v>
+        <v>0.397260273972603</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.427777777777778</v>
+        <v>0.557971014492754</v>
       </c>
       <c r="Z156" t="s">
         <v>349</v>
@@ -49043,10 +49043,10 @@
         <v>0.513422273153291</v>
       </c>
       <c r="X157" t="n">
-        <v>0.311111111111111</v>
+        <v>0.767123287671233</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.416666666666667</v>
+        <v>0.543478260869565</v>
       </c>
       <c r="Z157" t="s">
         <v>351</v>
@@ -49135,10 +49135,10 @@
         <v>0.855799639016776</v>
       </c>
       <c r="X158" t="n">
-        <v>0.0888888888888889</v>
+        <v>0.219178082191781</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.361111111111111</v>
+        <v>0.471014492753623</v>
       </c>
       <c r="Z158" t="s">
         <v>353</v>
@@ -49227,10 +49227,10 @@
         <v>-0.352320071799705</v>
       </c>
       <c r="X159" t="n">
-        <v>0.222222222222222</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.25</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="Z159" t="s">
         <v>355</v>
@@ -49319,10 +49319,10 @@
         <v>0.181849335521176</v>
       </c>
       <c r="X160" t="n">
-        <v>0.166666666666667</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.283333333333333</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="Z160" t="s">
         <v>359</v>
@@ -49414,7 +49414,7 @@
         <v>0</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.261111111111111</v>
+        <v>0.340579710144928</v>
       </c>
       <c r="Z161" t="s">
         <v>432</v>
@@ -49506,7 +49506,7 @@
         <v>0</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.0777777777777778</v>
+        <v>0.101449275362319</v>
       </c>
       <c r="Z162" t="s">
         <v>434</v>
@@ -49595,10 +49595,10 @@
         <v>-0.401758335143063</v>
       </c>
       <c r="X163" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.155555555555556</v>
+        <v>0.202898550724638</v>
       </c>
       <c r="Z163" t="s">
         <v>361</v>
@@ -49687,10 +49687,10 @@
         <v>1.89899716149217</v>
       </c>
       <c r="X164" t="n">
-        <v>0.383333333333333</v>
+        <v>0.945205479452055</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.755555555555556</v>
+        <v>0.985507246376812</v>
       </c>
       <c r="Z164" t="s">
         <v>363</v>
@@ -49779,10 +49779,10 @@
         <v>1.3190801719776</v>
       </c>
       <c r="X165" t="n">
-        <v>0.377777777777778</v>
+        <v>0.931506849315068</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.616666666666667</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="Z165" t="s">
         <v>365</v>
@@ -49871,10 +49871,10 @@
         <v>-1.25140886758752</v>
       </c>
       <c r="X166" t="n">
-        <v>0.327777777777778</v>
+        <v>0.808219178082192</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.527777777777778</v>
+        <v>0.688405797101449</v>
       </c>
       <c r="Z166" t="s">
         <v>367</v>
@@ -49963,10 +49963,10 @@
         <v>-1.95200950362951</v>
       </c>
       <c r="X167" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.164383561643836</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.05</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="Z167" t="s">
         <v>369</v>
@@ -50055,10 +50055,10 @@
         <v>-3.06254998284275</v>
       </c>
       <c r="X168" t="n">
-        <v>0.05</v>
+        <v>0.123287671232877</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.0942028985507246</v>
       </c>
       <c r="Z168" t="s">
         <v>371</v>
@@ -50147,10 +50147,10 @@
         <v>0.758903769848119</v>
       </c>
       <c r="X169" t="n">
-        <v>0.111111111111111</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.127777777777778</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z169" t="s">
         <v>373</v>
@@ -50239,10 +50239,10 @@
         <v>-2.82716794958968</v>
       </c>
       <c r="X170" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.183333333333333</v>
+        <v>0.239130434782609</v>
       </c>
       <c r="Z170" t="s">
         <v>375</v>
@@ -50331,10 +50331,10 @@
         <v>0.319942285570801</v>
       </c>
       <c r="X171" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.178082191780822</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.205555555555556</v>
+        <v>0.268115942028986</v>
       </c>
       <c r="Z171" t="s">
         <v>377</v>
@@ -50423,10 +50423,10 @@
         <v>-1.60891517978686</v>
       </c>
       <c r="X172" t="n">
-        <v>0.0944444444444444</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z172" t="s">
         <v>379</v>
@@ -50515,10 +50515,10 @@
         <v>0.563625509115083</v>
       </c>
       <c r="X173" t="n">
-        <v>0.266666666666667</v>
+        <v>0.657534246575342</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.372222222222222</v>
+        <v>0.485507246376812</v>
       </c>
       <c r="Z173" t="s">
         <v>381</v>
@@ -50607,10 +50607,10 @@
         <v>-0.364447632666527</v>
       </c>
       <c r="X174" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.164383561643836</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.105555555555556</v>
+        <v>0.13768115942029</v>
       </c>
       <c r="Z174" t="s">
         <v>383</v>
@@ -50699,10 +50699,10 @@
         <v>0.0233735276991225</v>
       </c>
       <c r="X175" t="n">
-        <v>0.361111111111111</v>
+        <v>0.89041095890411</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.455555555555556</v>
+        <v>0.594202898550725</v>
       </c>
       <c r="Z175" t="s">
         <v>385</v>
@@ -50791,10 +50791,10 @@
         <v>0.104197987613745</v>
       </c>
       <c r="X176" t="n">
-        <v>0.322222222222222</v>
+        <v>0.794520547945205</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.427777777777778</v>
+        <v>0.557971014492754</v>
       </c>
       <c r="Z176" t="s">
         <v>387</v>
@@ -50883,10 +50883,10 @@
         <v>-1.40149797270057</v>
       </c>
       <c r="X177" t="n">
-        <v>0.327777777777778</v>
+        <v>0.808219178082192</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.305555555555556</v>
+        <v>0.398550724637681</v>
       </c>
       <c r="Z177" t="s">
         <v>389</v>
@@ -50975,10 +50975,10 @@
         <v>-1.82748467544876</v>
       </c>
       <c r="X178" t="n">
-        <v>0.0944444444444444</v>
+        <v>0.232876712328767</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.0722222222222222</v>
+        <v>0.0942028985507246</v>
       </c>
       <c r="Z178" t="s">
         <v>391</v>
@@ -51067,10 +51067,10 @@
         <v>-1.98797283477403</v>
       </c>
       <c r="X179" t="n">
-        <v>0.122222222222222</v>
+        <v>0.301369863013699</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.0888888888888889</v>
+        <v>0.115942028985507</v>
       </c>
       <c r="Z179" t="s">
         <v>393</v>
@@ -51159,10 +51159,10 @@
         <v>2.65507117769152</v>
       </c>
       <c r="X180" t="n">
-        <v>0.294444444444444</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.672222222222222</v>
+        <v>0.876811594202899</v>
       </c>
       <c r="Z180" t="s">
         <v>397</v>
@@ -51254,7 +51254,7 @@
         <v>0</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="Z181" t="s">
         <v>436</v>
